--- a/Data/Raw/US Census - Age and Sex Ratio 2021.xlsx
+++ b/Data/Raw/US Census - Age and Sex Ratio 2021.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEE8B4B-FD35-8247-9466-281833F213D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AD4CA4-9D45-4D88-A25F-E4A5D8C26FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="2820" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -1886,18 +1886,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -1951,7 +1945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1972,26 +1966,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2381,3535 +2378,3193 @@
   </sheetPr>
   <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A309" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="1" customWidth="1"/>
     <col min="2" max="2" width="80" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:3" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="13"/>
-    </row>
-    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="13"/>
-    </row>
-    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="13"/>
-    </row>
-    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="13"/>
-    </row>
-    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="13"/>
-    </row>
-    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="13"/>
-    </row>
-    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="13"/>
-    </row>
-    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="13"/>
-    </row>
-    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="13"/>
-    </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="13"/>
-    </row>
-    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="13"/>
-    </row>
-    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="13"/>
-    </row>
-    <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="13"/>
-    </row>
-    <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="10"/>
+    </row>
+    <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="13"/>
-    </row>
-    <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="13"/>
-    </row>
-    <row r="52" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="13"/>
-    </row>
-    <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="10"/>
+    </row>
+    <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="13"/>
-    </row>
-    <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="13"/>
-    </row>
-    <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="13"/>
-    </row>
-    <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="13"/>
-    </row>
-    <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="13"/>
-    </row>
-    <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="13"/>
-    </row>
-    <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="10"/>
+    </row>
+    <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="13"/>
-    </row>
-    <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="10"/>
+    </row>
+    <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="13"/>
-    </row>
-    <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="10"/>
+    </row>
+    <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="13"/>
-    </row>
-    <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="10"/>
+    </row>
+    <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="13"/>
-    </row>
-    <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="10"/>
+    </row>
+    <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="13"/>
-    </row>
-    <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="10"/>
+    </row>
+    <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="13"/>
-    </row>
-    <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="10"/>
+    </row>
+    <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="13"/>
-    </row>
-    <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="10"/>
+    </row>
+    <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="13"/>
-    </row>
-    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="10"/>
+    </row>
+    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="13"/>
-    </row>
-    <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="10"/>
+    </row>
+    <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="13"/>
-    </row>
-    <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="10"/>
+    </row>
+    <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="13"/>
-    </row>
-    <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="10"/>
+    </row>
+    <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="13"/>
-    </row>
-    <row r="71" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="10"/>
+    </row>
+    <row r="71" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="13"/>
-    </row>
-    <row r="72" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="10"/>
+    </row>
+    <row r="72" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="13"/>
-    </row>
-    <row r="73" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="10"/>
+    </row>
+    <row r="73" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="13"/>
-    </row>
-    <row r="74" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="10"/>
+    </row>
+    <row r="74" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="13"/>
-    </row>
-    <row r="75" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="10"/>
+    </row>
+    <row r="75" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="13"/>
-    </row>
-    <row r="76" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="10"/>
+    </row>
+    <row r="76" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="13"/>
-    </row>
-    <row r="77" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="10"/>
+    </row>
+    <row r="77" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="13"/>
-    </row>
-    <row r="78" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="10"/>
+    </row>
+    <row r="78" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="13"/>
-    </row>
-    <row r="79" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="10"/>
+    </row>
+    <row r="79" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="13"/>
-    </row>
-    <row r="80" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="10"/>
+    </row>
+    <row r="80" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="13"/>
-    </row>
-    <row r="81" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="10"/>
+    </row>
+    <row r="81" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="13"/>
-    </row>
-    <row r="82" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="10"/>
+    </row>
+    <row r="82" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C82" s="13"/>
-    </row>
-    <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="10"/>
+    </row>
+    <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="13"/>
-    </row>
-    <row r="84" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="10"/>
+    </row>
+    <row r="84" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="13"/>
-    </row>
-    <row r="85" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="10"/>
+    </row>
+    <row r="85" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="13"/>
-    </row>
-    <row r="86" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="10"/>
+    </row>
+    <row r="86" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="13"/>
-    </row>
-    <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="10"/>
+    </row>
+    <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="13"/>
-    </row>
-    <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="10"/>
+    </row>
+    <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="13"/>
-    </row>
-    <row r="89" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="10"/>
+    </row>
+    <row r="89" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="13"/>
-    </row>
-    <row r="90" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="10"/>
+    </row>
+    <row r="90" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="13"/>
-    </row>
-    <row r="91" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="10"/>
+    </row>
+    <row r="91" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="13"/>
-    </row>
-    <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="10"/>
+    </row>
+    <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="13"/>
-    </row>
-    <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="10"/>
+    </row>
+    <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C93" s="13"/>
-    </row>
-    <row r="94" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="10"/>
+    </row>
+    <row r="94" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="13"/>
-    </row>
-    <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="10"/>
+    </row>
+    <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="13"/>
-    </row>
-    <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="10"/>
+    </row>
+    <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="13"/>
-    </row>
-    <row r="97" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="10"/>
+    </row>
+    <row r="97" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="13"/>
-    </row>
-    <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="10"/>
+    </row>
+    <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="13"/>
-    </row>
-    <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="10"/>
+    </row>
+    <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="13"/>
-    </row>
-    <row r="100" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="10"/>
+    </row>
+    <row r="100" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C100" s="13"/>
-    </row>
-    <row r="101" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="10"/>
+    </row>
+    <row r="101" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="13"/>
-    </row>
-    <row r="102" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="10"/>
+    </row>
+    <row r="102" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C102" s="13"/>
-    </row>
-    <row r="103" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="10"/>
+    </row>
+    <row r="103" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="13"/>
-    </row>
-    <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="10"/>
+    </row>
+    <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="13"/>
-    </row>
-    <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="10"/>
+    </row>
+    <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C105" s="13"/>
-    </row>
-    <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="10"/>
+    </row>
+    <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="13"/>
-    </row>
-    <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="10"/>
+    </row>
+    <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="13"/>
-    </row>
-    <row r="108" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="10"/>
+    </row>
+    <row r="108" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="13"/>
-    </row>
-    <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="10"/>
+    </row>
+    <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="13"/>
-    </row>
-    <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="10"/>
+    </row>
+    <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="13"/>
-    </row>
-    <row r="111" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="10"/>
+    </row>
+    <row r="111" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C111" s="13"/>
-    </row>
-    <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="10"/>
+    </row>
+    <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C112" s="13"/>
-    </row>
-    <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="10"/>
+    </row>
+    <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C113" s="13"/>
-    </row>
-    <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="10"/>
+    </row>
+    <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C114" s="13"/>
-    </row>
-    <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="10"/>
+    </row>
+    <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C115" s="13"/>
-    </row>
-    <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="10"/>
+    </row>
+    <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C116" s="13"/>
-    </row>
-    <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="10"/>
+    </row>
+    <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C117" s="13"/>
-    </row>
-    <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="10"/>
+    </row>
+    <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C118" s="13"/>
-    </row>
-    <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="10"/>
+    </row>
+    <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C119" s="13"/>
-    </row>
-    <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="10"/>
+    </row>
+    <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C120" s="13"/>
-    </row>
-    <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="10"/>
+    </row>
+    <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C121" s="13"/>
-    </row>
-    <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="10"/>
+    </row>
+    <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C122" s="13"/>
-    </row>
-    <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="10"/>
+    </row>
+    <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="13" t="s">
+      <c r="B123" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C123" s="13"/>
-    </row>
-    <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C123" s="10"/>
+    </row>
+    <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C124" s="13"/>
-    </row>
-    <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="10"/>
+    </row>
+    <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C125" s="13"/>
-    </row>
-    <row r="126" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C125" s="10"/>
+    </row>
+    <row r="126" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="B126" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C126" s="13"/>
-    </row>
-    <row r="127" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C126" s="10"/>
+    </row>
+    <row r="127" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C127" s="13"/>
-    </row>
-    <row r="128" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C127" s="10"/>
+    </row>
+    <row r="128" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C128" s="13"/>
-    </row>
-    <row r="129" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C128" s="10"/>
+    </row>
+    <row r="129" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="B129" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="13"/>
-    </row>
-    <row r="130" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C129" s="10"/>
+    </row>
+    <row r="130" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C130" s="13"/>
-    </row>
-    <row r="131" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C130" s="10"/>
+    </row>
+    <row r="131" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C131" s="13"/>
-    </row>
-    <row r="132" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C131" s="10"/>
+    </row>
+    <row r="132" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C132" s="13"/>
-    </row>
-    <row r="133" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C132" s="10"/>
+    </row>
+    <row r="133" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C133" s="13"/>
-    </row>
-    <row r="134" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C133" s="10"/>
+    </row>
+    <row r="134" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C134" s="13"/>
-    </row>
-    <row r="135" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C134" s="10"/>
+    </row>
+    <row r="135" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C135" s="13"/>
-    </row>
-    <row r="136" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C135" s="10"/>
+    </row>
+    <row r="136" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C136" s="13"/>
-    </row>
-    <row r="137" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C136" s="10"/>
+    </row>
+    <row r="137" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C137" s="13"/>
-    </row>
-    <row r="138" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C137" s="10"/>
+    </row>
+    <row r="138" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C138" s="13"/>
-    </row>
-    <row r="139" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C138" s="10"/>
+    </row>
+    <row r="139" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C139" s="13"/>
-    </row>
-    <row r="140" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C139" s="10"/>
+    </row>
+    <row r="140" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C140" s="13"/>
-    </row>
-    <row r="141" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C140" s="10"/>
+    </row>
+    <row r="141" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B141" s="13" t="s">
+      <c r="B141" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C141" s="13"/>
-    </row>
-    <row r="142" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C141" s="10"/>
+    </row>
+    <row r="142" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="13" t="s">
+      <c r="B142" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C142" s="13"/>
-    </row>
-    <row r="143" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C142" s="10"/>
+    </row>
+    <row r="143" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B143" s="13" t="s">
+      <c r="B143" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C143" s="13"/>
-    </row>
-    <row r="144" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C143" s="10"/>
+    </row>
+    <row r="144" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B144" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C144" s="13"/>
-    </row>
-    <row r="145" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C144" s="10"/>
+    </row>
+    <row r="145" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="B145" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C145" s="13"/>
-    </row>
-    <row r="146" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C145" s="10"/>
+    </row>
+    <row r="146" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C146" s="13"/>
-    </row>
-    <row r="147" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C146" s="10"/>
+    </row>
+    <row r="147" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C147" s="13"/>
-    </row>
-    <row r="148" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C147" s="10"/>
+    </row>
+    <row r="148" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B148" s="13" t="s">
+      <c r="B148" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C148" s="13"/>
-    </row>
-    <row r="149" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C148" s="10"/>
+    </row>
+    <row r="149" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B149" s="13" t="s">
+      <c r="B149" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C149" s="13"/>
-    </row>
-    <row r="150" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C149" s="10"/>
+    </row>
+    <row r="150" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="B150" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C150" s="13"/>
-    </row>
-    <row r="151" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C150" s="10"/>
+    </row>
+    <row r="151" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="B151" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C151" s="13"/>
-    </row>
-    <row r="152" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C151" s="10"/>
+    </row>
+    <row r="152" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B152" s="13" t="s">
+      <c r="B152" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C152" s="13"/>
-    </row>
-    <row r="153" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C152" s="10"/>
+    </row>
+    <row r="153" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B153" s="13" t="s">
+      <c r="B153" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C153" s="13"/>
-    </row>
-    <row r="154" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C153" s="10"/>
+    </row>
+    <row r="154" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B154" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C154" s="13"/>
-    </row>
-    <row r="155" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C154" s="10"/>
+    </row>
+    <row r="155" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B155" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C155" s="13"/>
-    </row>
-    <row r="156" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C155" s="10"/>
+    </row>
+    <row r="156" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="13" t="s">
+      <c r="B156" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C156" s="13"/>
-    </row>
-    <row r="157" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C156" s="10"/>
+    </row>
+    <row r="157" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B157" s="13" t="s">
+      <c r="B157" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C157" s="13"/>
-    </row>
-    <row r="158" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C157" s="10"/>
+    </row>
+    <row r="158" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="B158" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C158" s="13"/>
-    </row>
-    <row r="159" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C158" s="10"/>
+    </row>
+    <row r="159" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B159" s="13" t="s">
+      <c r="B159" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C159" s="13"/>
-    </row>
-    <row r="160" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C159" s="10"/>
+    </row>
+    <row r="160" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="B160" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C160" s="13"/>
-    </row>
-    <row r="161" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C160" s="10"/>
+    </row>
+    <row r="161" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B161" s="13" t="s">
+      <c r="B161" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C161" s="13"/>
-    </row>
-    <row r="162" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C161" s="10"/>
+    </row>
+    <row r="162" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C162" s="13"/>
-    </row>
-    <row r="163" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C162" s="10"/>
+    </row>
+    <row r="163" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C163" s="13"/>
-    </row>
-    <row r="164" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C163" s="10"/>
+    </row>
+    <row r="164" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B164" s="13" t="s">
+      <c r="B164" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C164" s="13"/>
-    </row>
-    <row r="165" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C164" s="10"/>
+    </row>
+    <row r="165" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B165" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C165" s="13"/>
-    </row>
-    <row r="166" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C165" s="10"/>
+    </row>
+    <row r="166" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B166" s="13" t="s">
+      <c r="B166" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C166" s="13"/>
-    </row>
-    <row r="167" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C166" s="10"/>
+    </row>
+    <row r="167" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B167" s="13" t="s">
+      <c r="B167" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C167" s="13"/>
-    </row>
-    <row r="168" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C167" s="10"/>
+    </row>
+    <row r="168" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B168" s="13" t="s">
+      <c r="B168" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C168" s="13"/>
-    </row>
-    <row r="169" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C168" s="10"/>
+    </row>
+    <row r="169" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B169" s="13" t="s">
+      <c r="B169" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C169" s="13"/>
-    </row>
-    <row r="170" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C169" s="10"/>
+    </row>
+    <row r="170" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B170" s="13" t="s">
+      <c r="B170" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C170" s="13"/>
-    </row>
-    <row r="171" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C170" s="10"/>
+    </row>
+    <row r="171" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="13" t="s">
+      <c r="B171" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C171" s="13"/>
-    </row>
-    <row r="172" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C171" s="10"/>
+    </row>
+    <row r="172" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B172" s="13" t="s">
+      <c r="B172" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C172" s="13"/>
-    </row>
-    <row r="173" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C172" s="10"/>
+    </row>
+    <row r="173" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B173" s="13" t="s">
+      <c r="B173" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C173" s="13"/>
-    </row>
-    <row r="174" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C173" s="10"/>
+    </row>
+    <row r="174" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B174" s="13" t="s">
+      <c r="B174" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C174" s="13"/>
-    </row>
-    <row r="175" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C174" s="10"/>
+    </row>
+    <row r="175" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B175" s="13" t="s">
+      <c r="B175" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C175" s="13"/>
-    </row>
-    <row r="176" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C175" s="10"/>
+    </row>
+    <row r="176" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B176" s="13" t="s">
+      <c r="B176" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C176" s="13"/>
-    </row>
-    <row r="177" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C176" s="10"/>
+    </row>
+    <row r="177" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B177" s="13" t="s">
+      <c r="B177" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C177" s="13"/>
-    </row>
-    <row r="178" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C177" s="10"/>
+    </row>
+    <row r="178" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B178" s="13" t="s">
+      <c r="B178" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C178" s="13"/>
-    </row>
-    <row r="179" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="10"/>
+    </row>
+    <row r="179" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B179" s="13" t="s">
+      <c r="B179" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C179" s="13"/>
-    </row>
-    <row r="180" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C179" s="10"/>
+    </row>
+    <row r="180" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B180" s="13" t="s">
+      <c r="B180" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C180" s="13"/>
-    </row>
-    <row r="181" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C180" s="10"/>
+    </row>
+    <row r="181" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B181" s="13" t="s">
+      <c r="B181" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C181" s="13"/>
-    </row>
-    <row r="182" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C181" s="10"/>
+    </row>
+    <row r="182" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B182" s="13" t="s">
+      <c r="B182" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C182" s="13"/>
-    </row>
-    <row r="183" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C182" s="10"/>
+    </row>
+    <row r="183" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B183" s="13" t="s">
+      <c r="B183" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C183" s="13"/>
-    </row>
-    <row r="184" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C183" s="10"/>
+    </row>
+    <row r="184" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="13" t="s">
+      <c r="B184" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C184" s="13"/>
-    </row>
-    <row r="185" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C184" s="10"/>
+    </row>
+    <row r="185" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B185" s="13" t="s">
+      <c r="B185" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C185" s="13"/>
-    </row>
-    <row r="186" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C185" s="10"/>
+    </row>
+    <row r="186" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B186" s="13" t="s">
+      <c r="B186" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C186" s="13"/>
-    </row>
-    <row r="187" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C186" s="10"/>
+    </row>
+    <row r="187" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B187" s="13" t="s">
+      <c r="B187" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C187" s="13"/>
-    </row>
-    <row r="188" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C187" s="10"/>
+    </row>
+    <row r="188" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B188" s="13" t="s">
+      <c r="B188" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C188" s="13"/>
-    </row>
-    <row r="189" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C188" s="10"/>
+    </row>
+    <row r="189" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B189" s="13" t="s">
+      <c r="B189" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C189" s="13"/>
-    </row>
-    <row r="190" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C189" s="10"/>
+    </row>
+    <row r="190" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B190" s="13" t="s">
+      <c r="B190" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C190" s="13"/>
-    </row>
-    <row r="191" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C190" s="10"/>
+    </row>
+    <row r="191" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B191" s="13" t="s">
+      <c r="B191" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C191" s="13"/>
-    </row>
-    <row r="192" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C191" s="10"/>
+    </row>
+    <row r="192" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="13" t="s">
+      <c r="B192" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C192" s="13"/>
-    </row>
-    <row r="193" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C192" s="10"/>
+    </row>
+    <row r="193" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B193" s="13" t="s">
+      <c r="B193" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C193" s="13"/>
-    </row>
-    <row r="194" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C193" s="10"/>
+    </row>
+    <row r="194" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B194" s="13" t="s">
+      <c r="B194" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C194" s="13"/>
-    </row>
-    <row r="195" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C194" s="10"/>
+    </row>
+    <row r="195" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B195" s="13" t="s">
+      <c r="B195" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C195" s="13"/>
-    </row>
-    <row r="196" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C195" s="10"/>
+    </row>
+    <row r="196" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B196" s="13" t="s">
+      <c r="B196" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C196" s="13"/>
-    </row>
-    <row r="197" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C196" s="10"/>
+    </row>
+    <row r="197" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B197" s="13" t="s">
+      <c r="B197" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C197" s="13"/>
-    </row>
-    <row r="198" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C197" s="10"/>
+    </row>
+    <row r="198" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B198" s="13" t="s">
+      <c r="B198" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C198" s="13"/>
-    </row>
-    <row r="199" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C198" s="10"/>
+    </row>
+    <row r="199" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B199" s="13" t="s">
+      <c r="B199" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C199" s="13"/>
-    </row>
-    <row r="200" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C199" s="10"/>
+    </row>
+    <row r="200" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B200" s="13" t="s">
+      <c r="B200" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C200" s="13"/>
-    </row>
-    <row r="201" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C200" s="10"/>
+    </row>
+    <row r="201" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B201" s="13" t="s">
+      <c r="B201" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C201" s="13"/>
-    </row>
-    <row r="202" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C201" s="10"/>
+    </row>
+    <row r="202" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B202" s="13" t="s">
+      <c r="B202" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C202" s="13"/>
-    </row>
-    <row r="203" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C202" s="10"/>
+    </row>
+    <row r="203" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B203" s="13" t="s">
+      <c r="B203" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C203" s="13"/>
-    </row>
-    <row r="204" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C203" s="10"/>
+    </row>
+    <row r="204" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B204" s="13" t="s">
+      <c r="B204" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C204" s="13"/>
-    </row>
-    <row r="205" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C204" s="10"/>
+    </row>
+    <row r="205" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B205" s="13" t="s">
+      <c r="B205" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C205" s="13"/>
-    </row>
-    <row r="206" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C205" s="10"/>
+    </row>
+    <row r="206" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B206" s="13" t="s">
+      <c r="B206" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C206" s="13"/>
-    </row>
-    <row r="207" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C206" s="10"/>
+    </row>
+    <row r="207" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B207" s="13" t="s">
+      <c r="B207" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C207" s="13"/>
-    </row>
-    <row r="208" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C207" s="10"/>
+    </row>
+    <row r="208" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B208" s="13" t="s">
+      <c r="B208" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C208" s="13"/>
-    </row>
-    <row r="209" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C208" s="10"/>
+    </row>
+    <row r="209" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B209" s="13" t="s">
+      <c r="B209" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C209" s="13"/>
-    </row>
-    <row r="210" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C209" s="10"/>
+    </row>
+    <row r="210" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B210" s="13" t="s">
+      <c r="B210" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C210" s="13"/>
-    </row>
-    <row r="211" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C210" s="10"/>
+    </row>
+    <row r="211" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B211" s="13" t="s">
+      <c r="B211" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C211" s="13"/>
-    </row>
-    <row r="212" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C211" s="10"/>
+    </row>
+    <row r="212" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B212" s="13" t="s">
+      <c r="B212" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C212" s="13"/>
-    </row>
-    <row r="213" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C212" s="10"/>
+    </row>
+    <row r="213" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B213" s="13" t="s">
+      <c r="B213" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C213" s="13"/>
-    </row>
-    <row r="214" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C213" s="10"/>
+    </row>
+    <row r="214" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B214" s="13" t="s">
+      <c r="B214" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="13"/>
-    </row>
-    <row r="215" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C214" s="10"/>
+    </row>
+    <row r="215" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B215" s="13" t="s">
+      <c r="B215" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C215" s="13"/>
-    </row>
-    <row r="216" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C215" s="10"/>
+    </row>
+    <row r="216" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B216" s="13" t="s">
+      <c r="B216" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C216" s="13"/>
-    </row>
-    <row r="217" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C216" s="10"/>
+    </row>
+    <row r="217" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B217" s="13" t="s">
+      <c r="B217" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C217" s="13"/>
-    </row>
-    <row r="218" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C217" s="10"/>
+    </row>
+    <row r="218" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B218" s="13" t="s">
+      <c r="B218" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C218" s="13"/>
-    </row>
-    <row r="219" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C218" s="10"/>
+    </row>
+    <row r="219" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B219" s="13" t="s">
+      <c r="B219" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C219" s="13"/>
-    </row>
-    <row r="220" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C219" s="10"/>
+    </row>
+    <row r="220" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B220" s="13" t="s">
+      <c r="B220" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C220" s="13"/>
-    </row>
-    <row r="221" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C220" s="10"/>
+    </row>
+    <row r="221" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="13" t="s">
+      <c r="B221" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C221" s="13"/>
-    </row>
-    <row r="222" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C221" s="10"/>
+    </row>
+    <row r="222" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B222" s="13" t="s">
+      <c r="B222" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C222" s="13"/>
-    </row>
-    <row r="223" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C222" s="10"/>
+    </row>
+    <row r="223" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B223" s="13" t="s">
+      <c r="B223" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C223" s="13"/>
-    </row>
-    <row r="224" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C223" s="10"/>
+    </row>
+    <row r="224" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B224" s="13" t="s">
+      <c r="B224" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C224" s="13"/>
-    </row>
-    <row r="225" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C224" s="10"/>
+    </row>
+    <row r="225" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B225" s="13" t="s">
+      <c r="B225" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C225" s="13"/>
-    </row>
-    <row r="226" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C225" s="10"/>
+    </row>
+    <row r="226" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B226" s="13" t="s">
+      <c r="B226" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C226" s="13"/>
-    </row>
-    <row r="227" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C226" s="10"/>
+    </row>
+    <row r="227" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B227" s="13" t="s">
+      <c r="B227" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C227" s="13"/>
-    </row>
-    <row r="228" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C227" s="10"/>
+    </row>
+    <row r="228" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B228" s="13" t="s">
+      <c r="B228" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C228" s="13"/>
-    </row>
-    <row r="229" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C228" s="10"/>
+    </row>
+    <row r="229" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B229" s="13" t="s">
+      <c r="B229" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C229" s="13"/>
-    </row>
-    <row r="230" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C229" s="10"/>
+    </row>
+    <row r="230" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B230" s="13" t="s">
+      <c r="B230" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C230" s="13"/>
-    </row>
-    <row r="231" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C230" s="10"/>
+    </row>
+    <row r="231" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B231" s="13" t="s">
+      <c r="B231" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C231" s="13"/>
-    </row>
-    <row r="232" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C231" s="10"/>
+    </row>
+    <row r="232" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B232" s="13" t="s">
+      <c r="B232" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C232" s="13"/>
-    </row>
-    <row r="233" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C232" s="10"/>
+    </row>
+    <row r="233" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B233" s="13" t="s">
+      <c r="B233" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C233" s="13"/>
-    </row>
-    <row r="234" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C233" s="10"/>
+    </row>
+    <row r="234" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B234" s="13" t="s">
+      <c r="B234" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C234" s="13"/>
-    </row>
-    <row r="235" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C234" s="10"/>
+    </row>
+    <row r="235" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B235" s="13" t="s">
+      <c r="B235" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C235" s="13"/>
-    </row>
-    <row r="236" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C235" s="10"/>
+    </row>
+    <row r="236" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B236" s="13" t="s">
+      <c r="B236" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C236" s="13"/>
-    </row>
-    <row r="237" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C236" s="10"/>
+    </row>
+    <row r="237" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="13" t="s">
+      <c r="B237" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C237" s="13"/>
-    </row>
-    <row r="238" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C237" s="10"/>
+    </row>
+    <row r="238" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B238" s="13" t="s">
+      <c r="B238" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C238" s="13"/>
-    </row>
-    <row r="239" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C238" s="10"/>
+    </row>
+    <row r="239" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B239" s="13" t="s">
+      <c r="B239" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C239" s="13"/>
-    </row>
-    <row r="240" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C239" s="10"/>
+    </row>
+    <row r="240" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B240" s="13" t="s">
+      <c r="B240" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C240" s="13"/>
-    </row>
-    <row r="241" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C240" s="10"/>
+    </row>
+    <row r="241" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B241" s="13" t="s">
+      <c r="B241" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C241" s="13"/>
-    </row>
-    <row r="242" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C241" s="10"/>
+    </row>
+    <row r="242" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B242" s="13" t="s">
+      <c r="B242" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C242" s="13"/>
-    </row>
-    <row r="243" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C242" s="10"/>
+    </row>
+    <row r="243" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B243" s="13" t="s">
+      <c r="B243" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C243" s="13"/>
-    </row>
-    <row r="244" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C243" s="10"/>
+    </row>
+    <row r="244" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B244" s="13" t="s">
+      <c r="B244" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C244" s="13"/>
-    </row>
-    <row r="245" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C244" s="10"/>
+    </row>
+    <row r="245" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B245" s="13" t="s">
+      <c r="B245" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C245" s="13"/>
-    </row>
-    <row r="246" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C245" s="10"/>
+    </row>
+    <row r="246" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B246" s="13" t="s">
+      <c r="B246" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C246" s="13"/>
-    </row>
-    <row r="247" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C246" s="10"/>
+    </row>
+    <row r="247" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B247" s="13" t="s">
+      <c r="B247" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C247" s="13"/>
-    </row>
-    <row r="248" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C247" s="10"/>
+    </row>
+    <row r="248" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B248" s="13" t="s">
+      <c r="B248" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C248" s="13"/>
-    </row>
-    <row r="249" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C248" s="10"/>
+    </row>
+    <row r="249" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B249" s="13" t="s">
+      <c r="B249" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C249" s="13"/>
-    </row>
-    <row r="250" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C249" s="10"/>
+    </row>
+    <row r="250" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B250" s="13" t="s">
+      <c r="B250" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C250" s="13"/>
-    </row>
-    <row r="251" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C250" s="10"/>
+    </row>
+    <row r="251" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B251" s="13" t="s">
+      <c r="B251" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C251" s="13"/>
-    </row>
-    <row r="252" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C251" s="10"/>
+    </row>
+    <row r="252" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B252" s="13" t="s">
+      <c r="B252" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C252" s="13"/>
-    </row>
-    <row r="253" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C252" s="10"/>
+    </row>
+    <row r="253" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B253" s="13" t="s">
+      <c r="B253" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C253" s="13"/>
-    </row>
-    <row r="254" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C253" s="10"/>
+    </row>
+    <row r="254" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B254" s="13" t="s">
+      <c r="B254" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C254" s="13"/>
-    </row>
-    <row r="255" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C254" s="10"/>
+    </row>
+    <row r="255" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B255" s="13" t="s">
+      <c r="B255" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C255" s="13"/>
-    </row>
-    <row r="256" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C255" s="10"/>
+    </row>
+    <row r="256" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B256" s="13" t="s">
+      <c r="B256" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C256" s="13"/>
-    </row>
-    <row r="257" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C256" s="10"/>
+    </row>
+    <row r="257" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B257" s="13" t="s">
+      <c r="B257" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C257" s="13"/>
-    </row>
-    <row r="258" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C257" s="10"/>
+    </row>
+    <row r="258" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B258" s="13" t="s">
+      <c r="B258" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C258" s="13"/>
-    </row>
-    <row r="259" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C258" s="10"/>
+    </row>
+    <row r="259" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B259" s="13" t="s">
+      <c r="B259" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C259" s="13"/>
-    </row>
-    <row r="260" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C259" s="10"/>
+    </row>
+    <row r="260" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B260" s="13" t="s">
+      <c r="B260" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C260" s="13"/>
-    </row>
-    <row r="261" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C260" s="10"/>
+    </row>
+    <row r="261" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B261" s="13" t="s">
+      <c r="B261" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C261" s="13"/>
-    </row>
-    <row r="262" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C261" s="10"/>
+    </row>
+    <row r="262" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B262" s="13" t="s">
+      <c r="B262" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C262" s="13"/>
-    </row>
-    <row r="263" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C262" s="10"/>
+    </row>
+    <row r="263" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B263" s="13" t="s">
+      <c r="B263" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C263" s="13"/>
-    </row>
-    <row r="264" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C263" s="10"/>
+    </row>
+    <row r="264" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B264" s="13" t="s">
+      <c r="B264" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C264" s="13"/>
-    </row>
-    <row r="265" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C264" s="10"/>
+    </row>
+    <row r="265" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B265" s="13" t="s">
+      <c r="B265" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C265" s="13"/>
-    </row>
-    <row r="266" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C265" s="10"/>
+    </row>
+    <row r="266" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B266" s="13" t="s">
+      <c r="B266" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C266" s="13"/>
-    </row>
-    <row r="267" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C266" s="10"/>
+    </row>
+    <row r="267" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B267" s="13" t="s">
+      <c r="B267" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C267" s="13"/>
-    </row>
-    <row r="268" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C267" s="10"/>
+    </row>
+    <row r="268" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B268" s="13" t="s">
+      <c r="B268" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C268" s="13"/>
-    </row>
-    <row r="269" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C268" s="10"/>
+    </row>
+    <row r="269" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B269" s="13" t="s">
+      <c r="B269" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C269" s="13"/>
-    </row>
-    <row r="270" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C269" s="10"/>
+    </row>
+    <row r="270" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B270" s="13" t="s">
+      <c r="B270" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C270" s="13"/>
-    </row>
-    <row r="271" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C270" s="10"/>
+    </row>
+    <row r="271" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B271" s="13" t="s">
+      <c r="B271" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C271" s="13"/>
-    </row>
-    <row r="272" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C271" s="10"/>
+    </row>
+    <row r="272" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B272" s="13" t="s">
+      <c r="B272" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C272" s="13"/>
-    </row>
-    <row r="273" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C272" s="10"/>
+    </row>
+    <row r="273" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B273" s="13" t="s">
+      <c r="B273" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C273" s="13"/>
-    </row>
-    <row r="274" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C273" s="10"/>
+    </row>
+    <row r="274" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B274" s="13" t="s">
+      <c r="B274" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C274" s="13"/>
-    </row>
-    <row r="275" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C274" s="10"/>
+    </row>
+    <row r="275" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B275" s="13" t="s">
+      <c r="B275" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C275" s="13"/>
-    </row>
-    <row r="276" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C275" s="10"/>
+    </row>
+    <row r="276" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B276" s="13" t="s">
+      <c r="B276" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C276" s="13"/>
-    </row>
-    <row r="277" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C276" s="10"/>
+    </row>
+    <row r="277" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B277" s="13" t="s">
+      <c r="B277" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C277" s="13"/>
-    </row>
-    <row r="278" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C277" s="10"/>
+    </row>
+    <row r="278" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B278" s="13" t="s">
+      <c r="B278" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C278" s="13"/>
-    </row>
-    <row r="279" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C278" s="10"/>
+    </row>
+    <row r="279" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B279" s="13" t="s">
+      <c r="B279" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C279" s="13"/>
-    </row>
-    <row r="280" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C279" s="10"/>
+    </row>
+    <row r="280" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B280" s="13" t="s">
+      <c r="B280" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C280" s="13"/>
-    </row>
-    <row r="281" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C280" s="10"/>
+    </row>
+    <row r="281" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B281" s="13" t="s">
+      <c r="B281" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C281" s="13"/>
-    </row>
-    <row r="282" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C281" s="10"/>
+    </row>
+    <row r="282" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B282" s="13" t="s">
+      <c r="B282" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C282" s="13"/>
-    </row>
-    <row r="283" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C282" s="10"/>
+    </row>
+    <row r="283" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B283" s="13" t="s">
+      <c r="B283" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C283" s="13"/>
-    </row>
-    <row r="284" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C283" s="10"/>
+    </row>
+    <row r="284" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B284" s="13" t="s">
+      <c r="B284" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C284" s="13"/>
-    </row>
-    <row r="285" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C284" s="10"/>
+    </row>
+    <row r="285" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B285" s="13" t="s">
+      <c r="B285" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C285" s="13"/>
-    </row>
-    <row r="286" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C285" s="10"/>
+    </row>
+    <row r="286" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B286" s="13" t="s">
+      <c r="B286" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C286" s="13"/>
-    </row>
-    <row r="287" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C286" s="10"/>
+    </row>
+    <row r="287" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B287" s="13" t="s">
+      <c r="B287" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C287" s="13"/>
-    </row>
-    <row r="288" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C287" s="10"/>
+    </row>
+    <row r="288" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B288" s="13" t="s">
+      <c r="B288" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C288" s="13"/>
-    </row>
-    <row r="289" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C288" s="10"/>
+    </row>
+    <row r="289" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B289" s="13" t="s">
+      <c r="B289" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C289" s="13"/>
-    </row>
-    <row r="290" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C289" s="10"/>
+    </row>
+    <row r="290" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B290" s="13" t="s">
+      <c r="B290" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C290" s="13"/>
-    </row>
-    <row r="291" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C290" s="10"/>
+    </row>
+    <row r="291" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B291" s="13" t="s">
+      <c r="B291" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C291" s="13"/>
-    </row>
-    <row r="292" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C291" s="10"/>
+    </row>
+    <row r="292" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B292" s="13" t="s">
+      <c r="B292" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C292" s="13"/>
-    </row>
-    <row r="293" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C292" s="10"/>
+    </row>
+    <row r="293" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B293" s="13" t="s">
+      <c r="B293" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C293" s="13"/>
-    </row>
-    <row r="294" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C293" s="10"/>
+    </row>
+    <row r="294" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B294" s="13" t="s">
+      <c r="B294" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C294" s="13"/>
-    </row>
-    <row r="295" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C294" s="10"/>
+    </row>
+    <row r="295" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B295" s="13" t="s">
+      <c r="B295" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C295" s="13"/>
-    </row>
-    <row r="296" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C295" s="10"/>
+    </row>
+    <row r="296" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B296" s="13" t="s">
+      <c r="B296" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C296" s="13"/>
-    </row>
-    <row r="297" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C296" s="10"/>
+    </row>
+    <row r="297" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B297" s="13" t="s">
+      <c r="B297" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C297" s="13"/>
-    </row>
-    <row r="298" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C297" s="10"/>
+    </row>
+    <row r="298" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B298" s="13" t="s">
+      <c r="B298" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C298" s="13"/>
-    </row>
-    <row r="299" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C298" s="10"/>
+    </row>
+    <row r="299" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B299" s="13" t="s">
+      <c r="B299" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="13"/>
-    </row>
-    <row r="300" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C299" s="10"/>
+    </row>
+    <row r="300" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B300" s="13" t="s">
+      <c r="B300" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C300" s="13"/>
-    </row>
-    <row r="301" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C300" s="10"/>
+    </row>
+    <row r="301" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B301" s="13" t="s">
+      <c r="B301" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C301" s="13"/>
-    </row>
-    <row r="302" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C301" s="10"/>
+    </row>
+    <row r="302" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B302" s="13" t="s">
+      <c r="B302" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C302" s="13"/>
-    </row>
-    <row r="303" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C302" s="10"/>
+    </row>
+    <row r="303" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B303" s="13" t="s">
+      <c r="B303" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C303" s="13"/>
-    </row>
-    <row r="304" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C303" s="10"/>
+    </row>
+    <row r="304" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B304" s="13" t="s">
+      <c r="B304" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C304" s="13"/>
-    </row>
-    <row r="305" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C304" s="10"/>
+    </row>
+    <row r="305" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B305" s="13" t="s">
+      <c r="B305" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C305" s="13"/>
-    </row>
-    <row r="306" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C305" s="10"/>
+    </row>
+    <row r="306" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B306" s="13" t="s">
+      <c r="B306" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C306" s="13"/>
-    </row>
-    <row r="307" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C306" s="10"/>
+    </row>
+    <row r="307" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B307" s="13" t="s">
+      <c r="B307" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C307" s="13"/>
-    </row>
-    <row r="308" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C307" s="10"/>
+    </row>
+    <row r="308" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B308" s="13" t="s">
+      <c r="B308" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C308" s="13"/>
-    </row>
-    <row r="309" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C308" s="10"/>
+    </row>
+    <row r="309" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B309" s="13" t="s">
+      <c r="B309" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C309" s="13"/>
-    </row>
-    <row r="310" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C309" s="10"/>
+    </row>
+    <row r="310" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B310" s="13" t="s">
+      <c r="B310" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C310" s="13"/>
-    </row>
-    <row r="311" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C310" s="10"/>
+    </row>
+    <row r="311" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B311" s="13" t="s">
+      <c r="B311" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C311" s="13"/>
-    </row>
-    <row r="312" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C311" s="10"/>
+    </row>
+    <row r="312" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B312" s="13" t="s">
+      <c r="B312" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C312" s="13"/>
-    </row>
-    <row r="313" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C312" s="10"/>
+    </row>
+    <row r="313" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B313" s="13" t="s">
+      <c r="B313" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C313" s="13"/>
-    </row>
-    <row r="314" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C313" s="10"/>
+    </row>
+    <row r="314" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B314" s="13" t="s">
+      <c r="B314" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C314" s="13"/>
-    </row>
-    <row r="315" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C314" s="10"/>
+    </row>
+    <row r="315" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B315" s="13" t="s">
+      <c r="B315" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C315" s="13"/>
-    </row>
-    <row r="316" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C315" s="10"/>
+    </row>
+    <row r="316" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B316" s="13" t="s">
+      <c r="B316" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C316" s="13"/>
-    </row>
-    <row r="317" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C316" s="10"/>
+    </row>
+    <row r="317" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B317" s="13" t="s">
+      <c r="B317" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C317" s="13"/>
-    </row>
-    <row r="318" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C317" s="10"/>
+    </row>
+    <row r="318" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B318" s="13" t="s">
+      <c r="B318" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C318" s="13"/>
-    </row>
-    <row r="319" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C318" s="10"/>
+    </row>
+    <row r="319" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B319" s="13" t="s">
+      <c r="B319" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C319" s="13"/>
-    </row>
-    <row r="320" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C319" s="10"/>
+    </row>
+    <row r="320" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B320" s="13" t="s">
+      <c r="B320" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C320" s="13"/>
-    </row>
-    <row r="321" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C320" s="10"/>
+    </row>
+    <row r="321" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B321" s="13" t="s">
+      <c r="B321" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C321" s="13"/>
-    </row>
-    <row r="322" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C321" s="10"/>
+    </row>
+    <row r="322" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B322" s="13" t="s">
+      <c r="B322" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C322" s="13"/>
-    </row>
-    <row r="323" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C322" s="10"/>
+    </row>
+    <row r="323" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B323" s="13" t="s">
+      <c r="B323" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C323" s="13"/>
-    </row>
-    <row r="324" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C323" s="10"/>
+    </row>
+    <row r="324" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B324" s="13" t="s">
+      <c r="B324" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C324" s="13"/>
-    </row>
-    <row r="325" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C324" s="10"/>
+    </row>
+    <row r="325" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B325" s="13" t="s">
+      <c r="B325" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C325" s="13"/>
-    </row>
-    <row r="326" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C325" s="10"/>
+    </row>
+    <row r="326" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B326" s="13" t="s">
+      <c r="B326" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C326" s="13"/>
-    </row>
-    <row r="327" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C326" s="10"/>
+    </row>
+    <row r="327" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B327" s="13" t="s">
+      <c r="B327" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C327" s="13"/>
-    </row>
-    <row r="328" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C327" s="10"/>
+    </row>
+    <row r="328" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B328" s="13" t="s">
+      <c r="B328" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C328" s="13"/>
-    </row>
-    <row r="329" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C328" s="10"/>
+    </row>
+    <row r="329" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B329" s="13" t="s">
+      <c r="B329" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C329" s="13"/>
-    </row>
-    <row r="330" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C329" s="10"/>
+    </row>
+    <row r="330" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B330" s="13" t="s">
+      <c r="B330" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C330" s="13"/>
-    </row>
-    <row r="331" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C330" s="10"/>
+    </row>
+    <row r="331" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B331" s="13" t="s">
+      <c r="B331" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C331" s="13"/>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" s="13"/>
-      <c r="B332" s="13"/>
-      <c r="C332" s="13"/>
-    </row>
-    <row r="333" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C331" s="10"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="10"/>
+      <c r="B332" s="10"/>
+      <c r="C332" s="10"/>
+    </row>
+    <row r="333" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B333" s="13" t="s">
+      <c r="B333" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C333" s="13"/>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" s="13"/>
-      <c r="B334" s="13"/>
-      <c r="C334" s="13"/>
-    </row>
-    <row r="335" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C333" s="10"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="10"/>
+      <c r="B334" s="10"/>
+      <c r="C334" s="10"/>
+    </row>
+    <row r="335" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B335" s="13" t="s">
+      <c r="B335" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C335" s="13"/>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336" s="13"/>
-      <c r="B336" s="13"/>
-      <c r="C336" s="13"/>
-    </row>
-    <row r="337" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C335" s="10"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="10"/>
+      <c r="B336" s="10"/>
+      <c r="C336" s="10"/>
+    </row>
+    <row r="337" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B337" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C337" s="13"/>
-    </row>
-    <row r="338" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B337" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C337" s="10"/>
+    </row>
+    <row r="338" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B338" s="13" t="s">
+      <c r="B338" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C338" s="13"/>
-    </row>
-    <row r="339" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C338" s="10"/>
+    </row>
+    <row r="339" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B339" s="13" t="s">
+      <c r="B339" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C339" s="13"/>
-    </row>
-    <row r="340" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C339" s="10"/>
+    </row>
+    <row r="340" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B340" s="13" t="s">
+      <c r="B340" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C340" s="13"/>
-    </row>
-    <row r="341" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C340" s="10"/>
+    </row>
+    <row r="341" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B341" s="13" t="s">
+      <c r="B341" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C341" s="13"/>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342" s="13"/>
-      <c r="B342" s="13"/>
-      <c r="C342" s="13"/>
-    </row>
-    <row r="343" spans="1:3" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C341" s="10"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="10"/>
+      <c r="B342" s="10"/>
+      <c r="C342" s="10"/>
+    </row>
+    <row r="343" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B343" s="13" t="s">
+      <c r="B343" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C343" s="13"/>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" s="13"/>
-      <c r="B344" s="13"/>
-      <c r="C344" s="13"/>
-    </row>
-    <row r="345" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C343" s="10"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="10"/>
+      <c r="B344" s="10"/>
+      <c r="C344" s="10"/>
+    </row>
+    <row r="345" spans="1:3" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B345" s="13" t="s">
+      <c r="B345" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C345" s="13"/>
-    </row>
-    <row r="346" spans="1:3" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C345" s="10"/>
+    </row>
+    <row r="346" spans="1:3" ht="89.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B346" s="13" t="s">
+      <c r="B346" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C346" s="13"/>
-    </row>
-    <row r="347" spans="1:3" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C346" s="10"/>
+    </row>
+    <row r="347" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B347" s="13" t="s">
+      <c r="B347" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C347" s="13"/>
-    </row>
-    <row r="348" spans="1:3" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C347" s="10"/>
+    </row>
+    <row r="348" spans="1:3" ht="89.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B348" s="13" t="s">
+      <c r="B348" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C348" s="13"/>
-    </row>
-    <row r="349" spans="1:3" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C348" s="10"/>
+    </row>
+    <row r="349" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B349" s="13" t="s">
+      <c r="B349" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C349" s="13"/>
-    </row>
-    <row r="350" spans="1:3" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C349" s="10"/>
+    </row>
+    <row r="350" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B350" s="13" t="s">
+      <c r="B350" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C350" s="13"/>
-    </row>
-    <row r="351" spans="1:3" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C350" s="10"/>
+    </row>
+    <row r="351" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B351" s="13" t="s">
+      <c r="B351" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C351" s="13"/>
-    </row>
-    <row r="352" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C351" s="10"/>
+    </row>
+    <row r="352" spans="1:3" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B352" s="13" t="s">
+      <c r="B352" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="C352" s="13"/>
-    </row>
-    <row r="353" spans="1:3" ht="51.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C352" s="10"/>
+    </row>
+    <row r="353" spans="1:3" ht="51.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B353" s="13" t="s">
+      <c r="B353" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C353" s="13"/>
-    </row>
-    <row r="354" spans="1:3" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C353" s="10"/>
+    </row>
+    <row r="354" spans="1:3" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B354" s="13" t="s">
+      <c r="B354" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C354" s="13"/>
-    </row>
-    <row r="355" spans="1:3" ht="140.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C354" s="10"/>
+    </row>
+    <row r="355" spans="1:3" ht="140.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B355" s="13" t="s">
+      <c r="B355" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C355" s="13"/>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356" s="13"/>
-      <c r="B356" s="13"/>
-      <c r="C356" s="13"/>
-    </row>
-    <row r="357" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C355" s="10"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="10"/>
+      <c r="B356" s="10"/>
+      <c r="C356" s="10"/>
+    </row>
+    <row r="357" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B357" s="13" t="s">
+      <c r="B357" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C357" s="13"/>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" s="13"/>
-      <c r="B358" s="13"/>
-      <c r="C358" s="13"/>
+      <c r="C357" s="10"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" s="10"/>
+      <c r="B358" s="10"/>
+      <c r="C358" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="358">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="B306:C306"/>
-    <mergeCell ref="B307:C307"/>
-    <mergeCell ref="B308:C308"/>
-    <mergeCell ref="B309:C309"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="B312:C312"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="B314:C314"/>
-    <mergeCell ref="B315:C315"/>
-    <mergeCell ref="B316:C316"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="B319:C319"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="B321:C321"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="B325:C325"/>
-    <mergeCell ref="B326:C326"/>
-    <mergeCell ref="B327:C327"/>
-    <mergeCell ref="B328:C328"/>
-    <mergeCell ref="B329:C329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="B337:C337"/>
-    <mergeCell ref="B338:C338"/>
-    <mergeCell ref="B339:C339"/>
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="B341:C341"/>
-    <mergeCell ref="A342:C342"/>
     <mergeCell ref="B352:C352"/>
     <mergeCell ref="B353:C353"/>
     <mergeCell ref="B354:C354"/>
@@ -5926,6 +5581,348 @@
     <mergeCell ref="B349:C349"/>
     <mergeCell ref="B350:C350"/>
     <mergeCell ref="B351:C351"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="B337:C337"/>
+    <mergeCell ref="B338:C338"/>
+    <mergeCell ref="B339:C339"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="B326:C326"/>
+    <mergeCell ref="B327:C327"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B316:C316"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5945,20 +5942,20 @@
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AS4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:BA1"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20" style="9" customWidth="1"/>
+    <col min="2" max="3" width="20" style="14" customWidth="1"/>
     <col min="4" max="53" width="20" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -5968,165 +5965,165 @@
       <c r="C1" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AL1" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AM1" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AN1" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AP1" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AR1" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AT1" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AU1" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AV1" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AW1" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AX1" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AY1" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BA1" s="8" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>413</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -6280,14 +6277,14 @@
         <v>413</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>415</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -6441,19 +6438,19 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="14" t="s">
         <v>421</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -6607,175 +6604,175 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:53" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="Z6" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AB6" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AC6" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AD6" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AE6" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="AF6" s="9" t="s">
+      <c r="AF6" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AG6" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="AH6" s="9" t="s">
+      <c r="AH6" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="AI6" s="9" t="s">
+      <c r="AI6" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="AJ6" s="9" t="s">
+      <c r="AJ6" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AK6" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="AL6" s="9" t="s">
+      <c r="AL6" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="AM6" s="9" t="s">
+      <c r="AM6" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="AN6" s="9" t="s">
+      <c r="AN6" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="AO6" s="9" t="s">
+      <c r="AO6" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AP6" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="AQ6" s="9" t="s">
+      <c r="AQ6" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="AR6" s="9" t="s">
+      <c r="AR6" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="AS6" s="9" t="s">
+      <c r="AS6" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="AT6" s="9" t="s">
+      <c r="AT6" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="AU6" s="9" t="s">
+      <c r="AU6" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="AV6" s="9" t="s">
+      <c r="AV6" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="AW6" s="9" t="s">
+      <c r="AW6" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="AX6" s="9" t="s">
+      <c r="AX6" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="AY6" s="9" t="s">
+      <c r="AY6" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="AZ6" s="9" t="s">
+      <c r="AZ6" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="BA6" s="9" t="s">
+      <c r="BA6" s="14" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="14" t="s">
         <v>515</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -6929,14 +6926,14 @@
         <v>544</v>
       </c>
     </row>
-    <row r="8" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="14" t="s">
         <v>559</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -7090,14 +7087,14 @@
         <v>591</v>
       </c>
     </row>
-    <row r="9" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="14" t="s">
         <v>426</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -7251,19 +7248,19 @@
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>416</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -7417,14 +7414,14 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>416</v>
       </c>
       <c r="D12" s="4" t="s">

--- a/Data/Raw/US Census - Age and Sex Ratio 2021.xlsx
+++ b/Data/Raw/US Census - Age and Sex Ratio 2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AD4CA4-9D45-4D88-A25F-E4A5D8C26FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403A8DED-C821-4CD9-B7D1-88D348E86D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2820" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="426">
   <si>
     <t>AGE AND SEX</t>
   </si>
@@ -1279,577 +1279,16 @@
     <t>Median age (years)</t>
   </si>
   <si>
-    <t>39.2</t>
-  </si>
-  <si>
-    <t>37.7</t>
-  </si>
-  <si>
-    <t>34.6</t>
-  </si>
-  <si>
-    <t>34.1</t>
-  </si>
-  <si>
-    <t>35.2</t>
-  </si>
-  <si>
-    <t>37.9</t>
-  </si>
-  <si>
-    <t>36.7</t>
-  </si>
-  <si>
-    <t>39.3</t>
-  </si>
-  <si>
-    <t>38.3</t>
-  </si>
-  <si>
-    <t>36.9</t>
-  </si>
-  <si>
-    <t>39.7</t>
-  </si>
-  <si>
-    <t>35.6</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>41.1</t>
-  </si>
-  <si>
-    <t>39.4</t>
-  </si>
-  <si>
-    <t>42.7</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>39.1</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>42.2</t>
-  </si>
-  <si>
-    <t>38.2</t>
-  </si>
-  <si>
-    <t>36.6</t>
-  </si>
-  <si>
-    <t>35.9</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>39.6</t>
-  </si>
-  <si>
-    <t>37.8</t>
-  </si>
-  <si>
-    <t>37.2</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>40.4</t>
-  </si>
-  <si>
-    <t>38.4</t>
-  </si>
-  <si>
-    <t>44.8</t>
-  </si>
-  <si>
-    <t>38.8</t>
-  </si>
-  <si>
-    <t>40.3</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>40.9</t>
-  </si>
-  <si>
-    <t>39.8</t>
-  </si>
-  <si>
-    <t>38.1</t>
-  </si>
-  <si>
-    <t>36.3</t>
-  </si>
-  <si>
-    <t>38.7</t>
-  </si>
-  <si>
-    <t>40.1</t>
-  </si>
-  <si>
-    <t>38.9</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>38.5</t>
-  </si>
-  <si>
-    <t>39.5</t>
-  </si>
-  <si>
-    <t>34.8</t>
-  </si>
-  <si>
-    <t>33.9</t>
-  </si>
-  <si>
-    <t>31.1</t>
-  </si>
-  <si>
-    <t>42.8</t>
-  </si>
-  <si>
-    <t>42.4</t>
-  </si>
-  <si>
     <t>Sex ratio (males per 100 females)</t>
   </si>
   <si>
-    <t>93.6</t>
-  </si>
-  <si>
-    <t>109.2</t>
-  </si>
-  <si>
-    <t>98.8</t>
-  </si>
-  <si>
-    <t>96.4</t>
-  </si>
-  <si>
-    <t>98.9</t>
-  </si>
-  <si>
-    <t>101.4</t>
-  </si>
-  <si>
-    <t>95.2</t>
-  </si>
-  <si>
-    <t>90.3</t>
-  </si>
-  <si>
-    <t>95.7</t>
-  </si>
-  <si>
-    <t>94.7</t>
-  </si>
-  <si>
-    <t>100.6</t>
-  </si>
-  <si>
-    <t>96.6</t>
-  </si>
-  <si>
-    <t>97.2</t>
-  </si>
-  <si>
-    <t>98.7</t>
-  </si>
-  <si>
-    <t>99.4</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>95.4</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>94.3</t>
-  </si>
-  <si>
-    <t>99.2</t>
-  </si>
-  <si>
-    <t>93.9</t>
-  </si>
-  <si>
-    <t>96.3</t>
-  </si>
-  <si>
-    <t>101.2</t>
-  </si>
-  <si>
-    <t>99.5</t>
-  </si>
-  <si>
-    <t>100.7</t>
-  </si>
-  <si>
-    <t>98.3</t>
-  </si>
-  <si>
-    <t>95.5</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>94.4</t>
-  </si>
-  <si>
-    <t>104.9</t>
-  </si>
-  <si>
-    <t>96.1</t>
-  </si>
-  <si>
-    <t>98.2</t>
-  </si>
-  <si>
-    <t>94.1</t>
-  </si>
-  <si>
-    <t>101.5</t>
-  </si>
-  <si>
-    <t>95.3</t>
-  </si>
-  <si>
-    <t>97.6</t>
-  </si>
-  <si>
-    <t>96.8</t>
-  </si>
-  <si>
-    <t>100.1</t>
-  </si>
-  <si>
-    <t>97.8</t>
-  </si>
-  <si>
-    <t>99.1</t>
-  </si>
-  <si>
-    <t>103.9</t>
-  </si>
-  <si>
-    <t>90.5</t>
-  </si>
-  <si>
     <t>Age dependency ratio</t>
   </si>
   <si>
-    <t>64.6</t>
-  </si>
-  <si>
-    <t>58.2</t>
-  </si>
-  <si>
-    <t>67.9</t>
-  </si>
-  <si>
-    <t>67.4</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>57.1</t>
-  </si>
-  <si>
-    <t>60.9</t>
-  </si>
-  <si>
-    <t>66.4</t>
-  </si>
-  <si>
-    <t>43.3</t>
-  </si>
-  <si>
-    <t>67.7</t>
-  </si>
-  <si>
-    <t>60.5</t>
-  </si>
-  <si>
-    <t>65.8</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>61.6</t>
-  </si>
-  <si>
-    <t>64.3</t>
-  </si>
-  <si>
-    <t>67.2</t>
-  </si>
-  <si>
-    <t>66.8</t>
-  </si>
-  <si>
-    <t>63.8</t>
-  </si>
-  <si>
-    <t>64.9</t>
-  </si>
-  <si>
-    <t>60.3</t>
-  </si>
-  <si>
-    <t>63.5</t>
-  </si>
-  <si>
-    <t>64.1</t>
-  </si>
-  <si>
-    <t>65.6</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>67.8</t>
-  </si>
-  <si>
-    <t>62.5</t>
-  </si>
-  <si>
-    <t>61.9</t>
-  </si>
-  <si>
-    <t>59.7</t>
-  </si>
-  <si>
-    <t>62.4</t>
-  </si>
-  <si>
-    <t>63.2</t>
-  </si>
-  <si>
-    <t>64.7</t>
-  </si>
-  <si>
-    <t>62.2</t>
-  </si>
-  <si>
-    <t>57.9</t>
-  </si>
-  <si>
-    <t>65.2</t>
-  </si>
-  <si>
-    <t>70.2</t>
-  </si>
-  <si>
-    <t>62.9</t>
-  </si>
-  <si>
-    <t>62.1</t>
-  </si>
-  <si>
-    <t>68.1</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>59.8</t>
-  </si>
-  <si>
-    <t>59.9</t>
-  </si>
-  <si>
-    <t>67.1</t>
-  </si>
-  <si>
-    <t>63.6</t>
-  </si>
-  <si>
     <t>Old-age dependency ratio</t>
   </si>
   <si>
-    <t>27.8</t>
-  </si>
-  <si>
-    <t>18.8</t>
-  </si>
-  <si>
-    <t>29.5</t>
-  </si>
-  <si>
-    <t>28.4</t>
-  </si>
-  <si>
-    <t>22.8</t>
-  </si>
-  <si>
-    <t>22.3</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>31.3</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>34.4</t>
-  </si>
-  <si>
-    <t>30.5</t>
-  </si>
-  <si>
-    <t>26.9</t>
-  </si>
-  <si>
-    <t>25.3</t>
-  </si>
-  <si>
-    <t>25.8</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>26.4</t>
-  </si>
-  <si>
-    <t>26.8</t>
-  </si>
-  <si>
-    <t>24.7</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>28.1</t>
-  </si>
-  <si>
-    <t>26.3</t>
-  </si>
-  <si>
-    <t>31.2</t>
-  </si>
-  <si>
-    <t>25.6</t>
-  </si>
-  <si>
-    <t>28.8</t>
-  </si>
-  <si>
-    <t>29.2</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>26.1</t>
-  </si>
-  <si>
-    <t>29.9</t>
-  </si>
-  <si>
-    <t>27.2</t>
-  </si>
-  <si>
-    <t>26.6</t>
-  </si>
-  <si>
-    <t>20.3</t>
-  </si>
-  <si>
-    <t>18.6</t>
-  </si>
-  <si>
-    <t>33.3</t>
-  </si>
-  <si>
-    <t>33.7</t>
-  </si>
-  <si>
     <t>Child dependency ratio</t>
-  </si>
-  <si>
-    <t>36.8</t>
-  </si>
-  <si>
-    <t>36.2</t>
-  </si>
-  <si>
-    <t>33.1</t>
-  </si>
-  <si>
-    <t>35.1</t>
-  </si>
-  <si>
-    <t>25.7</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>43.1</t>
-  </si>
-  <si>
-    <t>38.6</t>
-  </si>
-  <si>
-    <t>30.9</t>
-  </si>
-  <si>
-    <t>35.4</t>
-  </si>
-  <si>
-    <t>41.4</t>
-  </si>
-  <si>
-    <t>30.2</t>
-  </si>
-  <si>
-    <t>30.7</t>
-  </si>
-  <si>
-    <t>41.8</t>
-  </si>
-  <si>
-    <t>49.5</t>
-  </si>
-  <si>
-    <t>29.8</t>
-  </si>
-  <si>
-    <t>33.8</t>
   </si>
   <si>
     <t>PERCENT ALLOCATED</t>
@@ -1865,6 +1304,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1945,7 +1387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1969,26 +1411,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2390,16 +1822,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -2409,3162 +1841,3504 @@
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="10"/>
+      <c r="B15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="10"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="10"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="10"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="10"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="10"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="10"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="10"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="10"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="10"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="10"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="10"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="10"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="10"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="10"/>
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="10"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="10"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="10"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="10"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="10"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="10"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="10"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="10"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="10"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="10"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="10"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="10"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="10"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="10"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="10"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C82" s="10"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="10"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="10"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="10"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="10"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="10"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="10"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="10"/>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="10"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="10"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="10"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C93" s="10"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="10"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="10"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="10"/>
+      <c r="C96" s="9"/>
     </row>
     <row r="97" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="10"/>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="10"/>
+      <c r="C98" s="9"/>
     </row>
     <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="10"/>
+      <c r="C99" s="9"/>
     </row>
     <row r="100" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C100" s="10"/>
+      <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="10"/>
+      <c r="C101" s="9"/>
     </row>
     <row r="102" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C102" s="10"/>
+      <c r="C102" s="9"/>
     </row>
     <row r="103" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="10"/>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="10"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C105" s="10"/>
+      <c r="C105" s="9"/>
     </row>
     <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="10"/>
+      <c r="C106" s="9"/>
     </row>
     <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="10"/>
+      <c r="C107" s="9"/>
     </row>
     <row r="108" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="10"/>
+      <c r="C108" s="9"/>
     </row>
     <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="10"/>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="10"/>
+      <c r="C110" s="9"/>
     </row>
     <row r="111" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C111" s="10"/>
+      <c r="C111" s="9"/>
     </row>
     <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C112" s="10"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C113" s="10"/>
+      <c r="C113" s="9"/>
     </row>
     <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C114" s="10"/>
+      <c r="C114" s="9"/>
     </row>
     <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C115" s="10"/>
+      <c r="C115" s="9"/>
     </row>
     <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C116" s="10"/>
+      <c r="C116" s="9"/>
     </row>
     <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C117" s="10"/>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C118" s="10"/>
+      <c r="C118" s="9"/>
     </row>
     <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C119" s="10"/>
+      <c r="C119" s="9"/>
     </row>
     <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C120" s="10"/>
+      <c r="C120" s="9"/>
     </row>
     <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C121" s="10"/>
+      <c r="C121" s="9"/>
     </row>
     <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C122" s="10"/>
+      <c r="C122" s="9"/>
     </row>
     <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C123" s="10"/>
+      <c r="C123" s="9"/>
     </row>
     <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C124" s="10"/>
+      <c r="C124" s="9"/>
     </row>
     <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C125" s="10"/>
+      <c r="C125" s="9"/>
     </row>
     <row r="126" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C126" s="10"/>
+      <c r="C126" s="9"/>
     </row>
     <row r="127" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C127" s="10"/>
+      <c r="C127" s="9"/>
     </row>
     <row r="128" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C128" s="10"/>
+      <c r="C128" s="9"/>
     </row>
     <row r="129" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="10"/>
+      <c r="C129" s="9"/>
     </row>
     <row r="130" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C130" s="10"/>
+      <c r="C130" s="9"/>
     </row>
     <row r="131" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C131" s="10"/>
+      <c r="C131" s="9"/>
     </row>
     <row r="132" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C132" s="10"/>
+      <c r="C132" s="9"/>
     </row>
     <row r="133" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C133" s="10"/>
+      <c r="C133" s="9"/>
     </row>
     <row r="134" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C134" s="10"/>
+      <c r="C134" s="9"/>
     </row>
     <row r="135" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C135" s="10"/>
+      <c r="C135" s="9"/>
     </row>
     <row r="136" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C136" s="10"/>
+      <c r="C136" s="9"/>
     </row>
     <row r="137" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C137" s="10"/>
+      <c r="C137" s="9"/>
     </row>
     <row r="138" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C138" s="10"/>
+      <c r="C138" s="9"/>
     </row>
     <row r="139" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C139" s="10"/>
+      <c r="C139" s="9"/>
     </row>
     <row r="140" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C140" s="10"/>
+      <c r="C140" s="9"/>
     </row>
     <row r="141" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C141" s="10"/>
+      <c r="C141" s="9"/>
     </row>
     <row r="142" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C142" s="10"/>
+      <c r="C142" s="9"/>
     </row>
     <row r="143" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C143" s="10"/>
+      <c r="C143" s="9"/>
     </row>
     <row r="144" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C144" s="10"/>
+      <c r="C144" s="9"/>
     </row>
     <row r="145" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C145" s="10"/>
+      <c r="C145" s="9"/>
     </row>
     <row r="146" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C146" s="10"/>
+      <c r="C146" s="9"/>
     </row>
     <row r="147" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C147" s="10"/>
+      <c r="C147" s="9"/>
     </row>
     <row r="148" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C148" s="10"/>
+      <c r="C148" s="9"/>
     </row>
     <row r="149" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C149" s="10"/>
+      <c r="C149" s="9"/>
     </row>
     <row r="150" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C150" s="10"/>
+      <c r="C150" s="9"/>
     </row>
     <row r="151" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C151" s="10"/>
+      <c r="C151" s="9"/>
     </row>
     <row r="152" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C152" s="10"/>
+      <c r="C152" s="9"/>
     </row>
     <row r="153" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C153" s="10"/>
+      <c r="C153" s="9"/>
     </row>
     <row r="154" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C154" s="10"/>
+      <c r="C154" s="9"/>
     </row>
     <row r="155" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C155" s="10"/>
+      <c r="C155" s="9"/>
     </row>
     <row r="156" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C156" s="10"/>
+      <c r="C156" s="9"/>
     </row>
     <row r="157" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C157" s="10"/>
+      <c r="C157" s="9"/>
     </row>
     <row r="158" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C158" s="10"/>
+      <c r="C158" s="9"/>
     </row>
     <row r="159" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C159" s="10"/>
+      <c r="C159" s="9"/>
     </row>
     <row r="160" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C160" s="10"/>
+      <c r="C160" s="9"/>
     </row>
     <row r="161" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C161" s="10"/>
+      <c r="C161" s="9"/>
     </row>
     <row r="162" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C162" s="10"/>
+      <c r="C162" s="9"/>
     </row>
     <row r="163" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C163" s="10"/>
+      <c r="C163" s="9"/>
     </row>
     <row r="164" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C164" s="10"/>
+      <c r="C164" s="9"/>
     </row>
     <row r="165" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C165" s="10"/>
+      <c r="C165" s="9"/>
     </row>
     <row r="166" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C166" s="10"/>
+      <c r="C166" s="9"/>
     </row>
     <row r="167" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C167" s="10"/>
+      <c r="C167" s="9"/>
     </row>
     <row r="168" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C168" s="10"/>
+      <c r="C168" s="9"/>
     </row>
     <row r="169" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C169" s="10"/>
+      <c r="C169" s="9"/>
     </row>
     <row r="170" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C170" s="10"/>
+      <c r="C170" s="9"/>
     </row>
     <row r="171" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C171" s="10"/>
+      <c r="C171" s="9"/>
     </row>
     <row r="172" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C172" s="10"/>
+      <c r="C172" s="9"/>
     </row>
     <row r="173" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C173" s="10"/>
+      <c r="C173" s="9"/>
     </row>
     <row r="174" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C174" s="10"/>
+      <c r="C174" s="9"/>
     </row>
     <row r="175" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C175" s="10"/>
+      <c r="C175" s="9"/>
     </row>
     <row r="176" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C176" s="10"/>
+      <c r="C176" s="9"/>
     </row>
     <row r="177" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C177" s="10"/>
+      <c r="C177" s="9"/>
     </row>
     <row r="178" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C178" s="10"/>
+      <c r="C178" s="9"/>
     </row>
     <row r="179" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C179" s="10"/>
+      <c r="C179" s="9"/>
     </row>
     <row r="180" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C180" s="10"/>
+      <c r="C180" s="9"/>
     </row>
     <row r="181" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C181" s="10"/>
+      <c r="C181" s="9"/>
     </row>
     <row r="182" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C182" s="10"/>
+      <c r="C182" s="9"/>
     </row>
     <row r="183" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C183" s="10"/>
+      <c r="C183" s="9"/>
     </row>
     <row r="184" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C184" s="10"/>
+      <c r="C184" s="9"/>
     </row>
     <row r="185" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C185" s="10"/>
+      <c r="C185" s="9"/>
     </row>
     <row r="186" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C186" s="10"/>
+      <c r="C186" s="9"/>
     </row>
     <row r="187" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C187" s="10"/>
+      <c r="C187" s="9"/>
     </row>
     <row r="188" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C188" s="10"/>
+      <c r="C188" s="9"/>
     </row>
     <row r="189" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C189" s="10"/>
+      <c r="C189" s="9"/>
     </row>
     <row r="190" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C190" s="10"/>
+      <c r="C190" s="9"/>
     </row>
     <row r="191" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C191" s="10"/>
+      <c r="C191" s="9"/>
     </row>
     <row r="192" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C192" s="10"/>
+      <c r="C192" s="9"/>
     </row>
     <row r="193" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C193" s="10"/>
+      <c r="C193" s="9"/>
     </row>
     <row r="194" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C194" s="10"/>
+      <c r="C194" s="9"/>
     </row>
     <row r="195" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C195" s="10"/>
+      <c r="C195" s="9"/>
     </row>
     <row r="196" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C196" s="10"/>
+      <c r="C196" s="9"/>
     </row>
     <row r="197" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C197" s="10"/>
+      <c r="C197" s="9"/>
     </row>
     <row r="198" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C198" s="10"/>
+      <c r="C198" s="9"/>
     </row>
     <row r="199" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C199" s="10"/>
+      <c r="C199" s="9"/>
     </row>
     <row r="200" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C200" s="10"/>
+      <c r="C200" s="9"/>
     </row>
     <row r="201" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C201" s="10"/>
+      <c r="C201" s="9"/>
     </row>
     <row r="202" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C202" s="10"/>
+      <c r="C202" s="9"/>
     </row>
     <row r="203" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C203" s="10"/>
+      <c r="C203" s="9"/>
     </row>
     <row r="204" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C204" s="10"/>
+      <c r="C204" s="9"/>
     </row>
     <row r="205" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C205" s="10"/>
+      <c r="C205" s="9"/>
     </row>
     <row r="206" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C206" s="10"/>
+      <c r="C206" s="9"/>
     </row>
     <row r="207" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C207" s="10"/>
+      <c r="C207" s="9"/>
     </row>
     <row r="208" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C208" s="10"/>
+      <c r="C208" s="9"/>
     </row>
     <row r="209" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C209" s="10"/>
+      <c r="C209" s="9"/>
     </row>
     <row r="210" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C210" s="10"/>
+      <c r="C210" s="9"/>
     </row>
     <row r="211" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C211" s="10"/>
+      <c r="C211" s="9"/>
     </row>
     <row r="212" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C212" s="10"/>
+      <c r="C212" s="9"/>
     </row>
     <row r="213" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B213" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C213" s="10"/>
+      <c r="C213" s="9"/>
     </row>
     <row r="214" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="10"/>
+      <c r="C214" s="9"/>
     </row>
     <row r="215" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="B215" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C215" s="10"/>
+      <c r="C215" s="9"/>
     </row>
     <row r="216" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B216" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C216" s="10"/>
+      <c r="C216" s="9"/>
     </row>
     <row r="217" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C217" s="10"/>
+      <c r="C217" s="9"/>
     </row>
     <row r="218" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B218" s="10" t="s">
+      <c r="B218" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C218" s="10"/>
+      <c r="C218" s="9"/>
     </row>
     <row r="219" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B219" s="10" t="s">
+      <c r="B219" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C219" s="10"/>
+      <c r="C219" s="9"/>
     </row>
     <row r="220" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C220" s="10"/>
+      <c r="C220" s="9"/>
     </row>
     <row r="221" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B221" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C221" s="10"/>
+      <c r="C221" s="9"/>
     </row>
     <row r="222" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="B222" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C222" s="10"/>
+      <c r="C222" s="9"/>
     </row>
     <row r="223" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B223" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C223" s="10"/>
+      <c r="C223" s="9"/>
     </row>
     <row r="224" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="B224" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C224" s="10"/>
+      <c r="C224" s="9"/>
     </row>
     <row r="225" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B225" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C225" s="10"/>
+      <c r="C225" s="9"/>
     </row>
     <row r="226" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="B226" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C226" s="10"/>
+      <c r="C226" s="9"/>
     </row>
     <row r="227" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B227" s="10" t="s">
+      <c r="B227" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C227" s="10"/>
+      <c r="C227" s="9"/>
     </row>
     <row r="228" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C228" s="10"/>
+      <c r="C228" s="9"/>
     </row>
     <row r="229" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B229" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C229" s="10"/>
+      <c r="C229" s="9"/>
     </row>
     <row r="230" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C230" s="10"/>
+      <c r="C230" s="9"/>
     </row>
     <row r="231" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C231" s="10"/>
+      <c r="C231" s="9"/>
     </row>
     <row r="232" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C232" s="10"/>
+      <c r="C232" s="9"/>
     </row>
     <row r="233" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B233" s="10" t="s">
+      <c r="B233" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C233" s="10"/>
+      <c r="C233" s="9"/>
     </row>
     <row r="234" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="B234" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C234" s="10"/>
+      <c r="C234" s="9"/>
     </row>
     <row r="235" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B235" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C235" s="10"/>
+      <c r="C235" s="9"/>
     </row>
     <row r="236" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="B236" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C236" s="10"/>
+      <c r="C236" s="9"/>
     </row>
     <row r="237" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="B237" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C237" s="10"/>
+      <c r="C237" s="9"/>
     </row>
     <row r="238" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C238" s="10"/>
+      <c r="C238" s="9"/>
     </row>
     <row r="239" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C239" s="10"/>
+      <c r="C239" s="9"/>
     </row>
     <row r="240" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B240" s="10" t="s">
+      <c r="B240" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C240" s="10"/>
+      <c r="C240" s="9"/>
     </row>
     <row r="241" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="B241" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C241" s="10"/>
+      <c r="C241" s="9"/>
     </row>
     <row r="242" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="B242" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C242" s="10"/>
+      <c r="C242" s="9"/>
     </row>
     <row r="243" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C243" s="10"/>
+      <c r="C243" s="9"/>
     </row>
     <row r="244" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B244" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C244" s="10"/>
+      <c r="C244" s="9"/>
     </row>
     <row r="245" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B245" s="10" t="s">
+      <c r="B245" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C245" s="10"/>
+      <c r="C245" s="9"/>
     </row>
     <row r="246" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B246" s="10" t="s">
+      <c r="B246" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C246" s="10"/>
+      <c r="C246" s="9"/>
     </row>
     <row r="247" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B247" s="10" t="s">
+      <c r="B247" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C247" s="10"/>
+      <c r="C247" s="9"/>
     </row>
     <row r="248" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B248" s="10" t="s">
+      <c r="B248" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C248" s="10"/>
+      <c r="C248" s="9"/>
     </row>
     <row r="249" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B249" s="10" t="s">
+      <c r="B249" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C249" s="10"/>
+      <c r="C249" s="9"/>
     </row>
     <row r="250" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="B250" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C250" s="10"/>
+      <c r="C250" s="9"/>
     </row>
     <row r="251" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="B251" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C251" s="10"/>
+      <c r="C251" s="9"/>
     </row>
     <row r="252" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="B252" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C252" s="10"/>
+      <c r="C252" s="9"/>
     </row>
     <row r="253" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B253" s="10" t="s">
+      <c r="B253" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C253" s="10"/>
+      <c r="C253" s="9"/>
     </row>
     <row r="254" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B254" s="10" t="s">
+      <c r="B254" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C254" s="10"/>
+      <c r="C254" s="9"/>
     </row>
     <row r="255" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B255" s="10" t="s">
+      <c r="B255" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C255" s="10"/>
+      <c r="C255" s="9"/>
     </row>
     <row r="256" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="B256" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C256" s="10"/>
+      <c r="C256" s="9"/>
     </row>
     <row r="257" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B257" s="10" t="s">
+      <c r="B257" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C257" s="10"/>
+      <c r="C257" s="9"/>
     </row>
     <row r="258" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="B258" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C258" s="10"/>
+      <c r="C258" s="9"/>
     </row>
     <row r="259" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B259" s="10" t="s">
+      <c r="B259" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C259" s="10"/>
+      <c r="C259" s="9"/>
     </row>
     <row r="260" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B260" s="10" t="s">
+      <c r="B260" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C260" s="10"/>
+      <c r="C260" s="9"/>
     </row>
     <row r="261" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B261" s="10" t="s">
+      <c r="B261" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C261" s="10"/>
+      <c r="C261" s="9"/>
     </row>
     <row r="262" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B262" s="10" t="s">
+      <c r="B262" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C262" s="10"/>
+      <c r="C262" s="9"/>
     </row>
     <row r="263" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B263" s="10" t="s">
+      <c r="B263" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C263" s="10"/>
+      <c r="C263" s="9"/>
     </row>
     <row r="264" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B264" s="10" t="s">
+      <c r="B264" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C264" s="10"/>
+      <c r="C264" s="9"/>
     </row>
     <row r="265" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="B265" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C265" s="10"/>
+      <c r="C265" s="9"/>
     </row>
     <row r="266" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B266" s="10" t="s">
+      <c r="B266" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C266" s="10"/>
+      <c r="C266" s="9"/>
     </row>
     <row r="267" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B267" s="10" t="s">
+      <c r="B267" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C267" s="10"/>
+      <c r="C267" s="9"/>
     </row>
     <row r="268" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B268" s="10" t="s">
+      <c r="B268" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C268" s="10"/>
+      <c r="C268" s="9"/>
     </row>
     <row r="269" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B269" s="10" t="s">
+      <c r="B269" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C269" s="10"/>
+      <c r="C269" s="9"/>
     </row>
     <row r="270" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B270" s="10" t="s">
+      <c r="B270" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C270" s="10"/>
+      <c r="C270" s="9"/>
     </row>
     <row r="271" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B271" s="10" t="s">
+      <c r="B271" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C271" s="10"/>
+      <c r="C271" s="9"/>
     </row>
     <row r="272" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="B272" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C272" s="10"/>
+      <c r="C272" s="9"/>
     </row>
     <row r="273" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B273" s="10" t="s">
+      <c r="B273" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C273" s="10"/>
+      <c r="C273" s="9"/>
     </row>
     <row r="274" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B274" s="10" t="s">
+      <c r="B274" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C274" s="10"/>
+      <c r="C274" s="9"/>
     </row>
     <row r="275" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B275" s="10" t="s">
+      <c r="B275" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C275" s="10"/>
+      <c r="C275" s="9"/>
     </row>
     <row r="276" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B276" s="10" t="s">
+      <c r="B276" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C276" s="10"/>
+      <c r="C276" s="9"/>
     </row>
     <row r="277" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B277" s="10" t="s">
+      <c r="B277" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C277" s="10"/>
+      <c r="C277" s="9"/>
     </row>
     <row r="278" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B278" s="10" t="s">
+      <c r="B278" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C278" s="10"/>
+      <c r="C278" s="9"/>
     </row>
     <row r="279" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B279" s="10" t="s">
+      <c r="B279" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C279" s="10"/>
+      <c r="C279" s="9"/>
     </row>
     <row r="280" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B280" s="10" t="s">
+      <c r="B280" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C280" s="10"/>
+      <c r="C280" s="9"/>
     </row>
     <row r="281" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B281" s="10" t="s">
+      <c r="B281" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C281" s="10"/>
+      <c r="C281" s="9"/>
     </row>
     <row r="282" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B282" s="10" t="s">
+      <c r="B282" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C282" s="10"/>
+      <c r="C282" s="9"/>
     </row>
     <row r="283" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="B283" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C283" s="10"/>
+      <c r="C283" s="9"/>
     </row>
     <row r="284" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B284" s="10" t="s">
+      <c r="B284" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C284" s="10"/>
+      <c r="C284" s="9"/>
     </row>
     <row r="285" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B285" s="10" t="s">
+      <c r="B285" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C285" s="10"/>
+      <c r="C285" s="9"/>
     </row>
     <row r="286" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B286" s="10" t="s">
+      <c r="B286" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C286" s="10"/>
+      <c r="C286" s="9"/>
     </row>
     <row r="287" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B287" s="10" t="s">
+      <c r="B287" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C287" s="10"/>
+      <c r="C287" s="9"/>
     </row>
     <row r="288" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B288" s="10" t="s">
+      <c r="B288" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C288" s="10"/>
+      <c r="C288" s="9"/>
     </row>
     <row r="289" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="B289" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C289" s="10"/>
+      <c r="C289" s="9"/>
     </row>
     <row r="290" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B290" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C290" s="10"/>
+      <c r="C290" s="9"/>
     </row>
     <row r="291" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B291" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C291" s="10"/>
+      <c r="C291" s="9"/>
     </row>
     <row r="292" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B292" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C292" s="10"/>
+      <c r="C292" s="9"/>
     </row>
     <row r="293" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B293" s="10" t="s">
+      <c r="B293" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C293" s="10"/>
+      <c r="C293" s="9"/>
     </row>
     <row r="294" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B294" s="10" t="s">
+      <c r="B294" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C294" s="10"/>
+      <c r="C294" s="9"/>
     </row>
     <row r="295" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B295" s="10" t="s">
+      <c r="B295" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C295" s="10"/>
+      <c r="C295" s="9"/>
     </row>
     <row r="296" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B296" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C296" s="10"/>
+      <c r="C296" s="9"/>
     </row>
     <row r="297" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B297" s="10" t="s">
+      <c r="B297" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C297" s="10"/>
+      <c r="C297" s="9"/>
     </row>
     <row r="298" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B298" s="10" t="s">
+      <c r="B298" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C298" s="10"/>
+      <c r="C298" s="9"/>
     </row>
     <row r="299" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B299" s="10" t="s">
+      <c r="B299" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="10"/>
+      <c r="C299" s="9"/>
     </row>
     <row r="300" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B300" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C300" s="10"/>
+      <c r="C300" s="9"/>
     </row>
     <row r="301" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B301" s="10" t="s">
+      <c r="B301" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C301" s="10"/>
+      <c r="C301" s="9"/>
     </row>
     <row r="302" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B302" s="10" t="s">
+      <c r="B302" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C302" s="10"/>
+      <c r="C302" s="9"/>
     </row>
     <row r="303" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B303" s="10" t="s">
+      <c r="B303" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C303" s="10"/>
+      <c r="C303" s="9"/>
     </row>
     <row r="304" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B304" s="10" t="s">
+      <c r="B304" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C304" s="10"/>
+      <c r="C304" s="9"/>
     </row>
     <row r="305" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B305" s="10" t="s">
+      <c r="B305" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C305" s="10"/>
+      <c r="C305" s="9"/>
     </row>
     <row r="306" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B306" s="10" t="s">
+      <c r="B306" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C306" s="10"/>
+      <c r="C306" s="9"/>
     </row>
     <row r="307" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B307" s="10" t="s">
+      <c r="B307" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C307" s="10"/>
+      <c r="C307" s="9"/>
     </row>
     <row r="308" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B308" s="10" t="s">
+      <c r="B308" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C308" s="10"/>
+      <c r="C308" s="9"/>
     </row>
     <row r="309" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C309" s="10"/>
+      <c r="C309" s="9"/>
     </row>
     <row r="310" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="B310" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C310" s="10"/>
+      <c r="C310" s="9"/>
     </row>
     <row r="311" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B311" s="10" t="s">
+      <c r="B311" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C311" s="10"/>
+      <c r="C311" s="9"/>
     </row>
     <row r="312" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="B312" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C312" s="10"/>
+      <c r="C312" s="9"/>
     </row>
     <row r="313" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B313" s="10" t="s">
+      <c r="B313" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C313" s="10"/>
+      <c r="C313" s="9"/>
     </row>
     <row r="314" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B314" s="10" t="s">
+      <c r="B314" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C314" s="10"/>
+      <c r="C314" s="9"/>
     </row>
     <row r="315" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B315" s="10" t="s">
+      <c r="B315" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C315" s="10"/>
+      <c r="C315" s="9"/>
     </row>
     <row r="316" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B316" s="10" t="s">
+      <c r="B316" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C316" s="10"/>
+      <c r="C316" s="9"/>
     </row>
     <row r="317" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B317" s="10" t="s">
+      <c r="B317" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C317" s="10"/>
+      <c r="C317" s="9"/>
     </row>
     <row r="318" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B318" s="10" t="s">
+      <c r="B318" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C318" s="10"/>
+      <c r="C318" s="9"/>
     </row>
     <row r="319" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B319" s="10" t="s">
+      <c r="B319" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C319" s="10"/>
+      <c r="C319" s="9"/>
     </row>
     <row r="320" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B320" s="10" t="s">
+      <c r="B320" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C320" s="10"/>
+      <c r="C320" s="9"/>
     </row>
     <row r="321" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B321" s="10" t="s">
+      <c r="B321" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C321" s="10"/>
+      <c r="C321" s="9"/>
     </row>
     <row r="322" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B322" s="10" t="s">
+      <c r="B322" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C322" s="10"/>
+      <c r="C322" s="9"/>
     </row>
     <row r="323" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B323" s="10" t="s">
+      <c r="B323" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C323" s="10"/>
+      <c r="C323" s="9"/>
     </row>
     <row r="324" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B324" s="10" t="s">
+      <c r="B324" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C324" s="10"/>
+      <c r="C324" s="9"/>
     </row>
     <row r="325" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B325" s="10" t="s">
+      <c r="B325" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C325" s="10"/>
+      <c r="C325" s="9"/>
     </row>
     <row r="326" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B326" s="10" t="s">
+      <c r="B326" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="C326" s="10"/>
+      <c r="C326" s="9"/>
     </row>
     <row r="327" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B327" s="10" t="s">
+      <c r="B327" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C327" s="10"/>
+      <c r="C327" s="9"/>
     </row>
     <row r="328" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B328" s="10" t="s">
+      <c r="B328" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C328" s="10"/>
+      <c r="C328" s="9"/>
     </row>
     <row r="329" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B329" s="10" t="s">
+      <c r="B329" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C329" s="10"/>
+      <c r="C329" s="9"/>
     </row>
     <row r="330" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B330" s="10" t="s">
+      <c r="B330" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C330" s="10"/>
+      <c r="C330" s="9"/>
     </row>
     <row r="331" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B331" s="10" t="s">
+      <c r="B331" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C331" s="10"/>
+      <c r="C331" s="9"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="10"/>
-      <c r="B332" s="10"/>
-      <c r="C332" s="10"/>
+      <c r="A332" s="9"/>
+      <c r="B332" s="9"/>
+      <c r="C332" s="9"/>
     </row>
     <row r="333" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B333" s="10" t="s">
+      <c r="B333" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C333" s="10"/>
+      <c r="C333" s="9"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="10"/>
-      <c r="B334" s="10"/>
-      <c r="C334" s="10"/>
+      <c r="A334" s="9"/>
+      <c r="B334" s="9"/>
+      <c r="C334" s="9"/>
     </row>
     <row r="335" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B335" s="10" t="s">
+      <c r="B335" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C335" s="10"/>
+      <c r="C335" s="9"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="10"/>
-      <c r="B336" s="10"/>
-      <c r="C336" s="10"/>
+      <c r="A336" s="9"/>
+      <c r="B336" s="9"/>
+      <c r="C336" s="9"/>
     </row>
     <row r="337" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B337" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C337" s="10"/>
+      <c r="B337" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C337" s="9"/>
     </row>
     <row r="338" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B338" s="10" t="s">
+      <c r="B338" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C338" s="10"/>
+      <c r="C338" s="9"/>
     </row>
     <row r="339" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B339" s="10" t="s">
+      <c r="B339" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C339" s="10"/>
+      <c r="C339" s="9"/>
     </row>
     <row r="340" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B340" s="10" t="s">
+      <c r="B340" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C340" s="10"/>
+      <c r="C340" s="9"/>
     </row>
     <row r="341" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B341" s="10" t="s">
+      <c r="B341" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C341" s="10"/>
+      <c r="C341" s="9"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="10"/>
-      <c r="B342" s="10"/>
-      <c r="C342" s="10"/>
+      <c r="A342" s="9"/>
+      <c r="B342" s="9"/>
+      <c r="C342" s="9"/>
     </row>
     <row r="343" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B343" s="10" t="s">
+      <c r="B343" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C343" s="10"/>
+      <c r="C343" s="9"/>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="10"/>
-      <c r="B344" s="10"/>
-      <c r="C344" s="10"/>
+      <c r="A344" s="9"/>
+      <c r="B344" s="9"/>
+      <c r="C344" s="9"/>
     </row>
     <row r="345" spans="1:3" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B345" s="10" t="s">
+      <c r="B345" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C345" s="10"/>
+      <c r="C345" s="9"/>
     </row>
     <row r="346" spans="1:3" ht="89.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B346" s="10" t="s">
+      <c r="B346" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="C346" s="10"/>
+      <c r="C346" s="9"/>
     </row>
     <row r="347" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B347" s="10" t="s">
+      <c r="B347" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C347" s="10"/>
+      <c r="C347" s="9"/>
     </row>
     <row r="348" spans="1:3" ht="89.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B348" s="10" t="s">
+      <c r="B348" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="C348" s="10"/>
+      <c r="C348" s="9"/>
     </row>
     <row r="349" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B349" s="10" t="s">
+      <c r="B349" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C349" s="10"/>
+      <c r="C349" s="9"/>
     </row>
     <row r="350" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B350" s="10" t="s">
+      <c r="B350" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="C350" s="10"/>
+      <c r="C350" s="9"/>
     </row>
     <row r="351" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B351" s="10" t="s">
+      <c r="B351" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C351" s="10"/>
+      <c r="C351" s="9"/>
     </row>
     <row r="352" spans="1:3" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B352" s="10" t="s">
+      <c r="B352" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C352" s="10"/>
+      <c r="C352" s="9"/>
     </row>
     <row r="353" spans="1:3" ht="51.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B353" s="10" t="s">
+      <c r="B353" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="C353" s="10"/>
+      <c r="C353" s="9"/>
     </row>
     <row r="354" spans="1:3" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B354" s="10" t="s">
+      <c r="B354" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="C354" s="10"/>
+      <c r="C354" s="9"/>
     </row>
     <row r="355" spans="1:3" ht="140.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B355" s="10" t="s">
+      <c r="B355" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C355" s="10"/>
+      <c r="C355" s="9"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="10"/>
-      <c r="B356" s="10"/>
-      <c r="C356" s="10"/>
+      <c r="A356" s="9"/>
+      <c r="B356" s="9"/>
+      <c r="C356" s="9"/>
     </row>
     <row r="357" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B357" s="10" t="s">
+      <c r="B357" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C357" s="10"/>
+      <c r="C357" s="9"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="10"/>
-      <c r="B358" s="10"/>
-      <c r="C358" s="10"/>
+      <c r="A358" s="9"/>
+      <c r="B358" s="9"/>
+      <c r="C358" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="358">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="B316:C316"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="B326:C326"/>
+    <mergeCell ref="B327:C327"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="B337:C337"/>
+    <mergeCell ref="B338:C338"/>
+    <mergeCell ref="B339:C339"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="A342:C342"/>
     <mergeCell ref="B352:C352"/>
     <mergeCell ref="B353:C353"/>
     <mergeCell ref="B354:C354"/>
@@ -5581,348 +5355,6 @@
     <mergeCell ref="B349:C349"/>
     <mergeCell ref="B350:C350"/>
     <mergeCell ref="B351:C351"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="B337:C337"/>
-    <mergeCell ref="B338:C338"/>
-    <mergeCell ref="B339:C339"/>
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="B341:C341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="B325:C325"/>
-    <mergeCell ref="B326:C326"/>
-    <mergeCell ref="B327:C327"/>
-    <mergeCell ref="B328:C328"/>
-    <mergeCell ref="B329:C329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B316:C316"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="B319:C319"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="B321:C321"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="B307:C307"/>
-    <mergeCell ref="B308:C308"/>
-    <mergeCell ref="B309:C309"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="B312:C312"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="B314:C314"/>
-    <mergeCell ref="B315:C315"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="B306:C306"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5945,24 +5377,23 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:BA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20" style="14" customWidth="1"/>
-    <col min="4" max="53" width="20" style="4" customWidth="1"/>
+    <col min="2" max="53" width="20" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>362</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -6120,10 +5551,10 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="5" t="s">
         <v>413</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -6281,10 +5712,10 @@
       <c r="A3" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="5" t="s">
         <v>415</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -6447,820 +5878,820 @@
       <c r="A5" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C5" s="12">
+        <v>34.6</v>
+      </c>
+      <c r="D5" s="12">
+        <v>37.9</v>
+      </c>
+      <c r="E5" s="12">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F5" s="12">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G5" s="12">
+        <v>36.9</v>
+      </c>
+      <c r="H5" s="12">
+        <v>41.1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>41</v>
+      </c>
+      <c r="J5" s="12">
+        <v>34.1</v>
+      </c>
+      <c r="K5" s="12">
+        <v>42.2</v>
+      </c>
+      <c r="L5" s="12">
+        <v>36.9</v>
+      </c>
+      <c r="M5" s="12">
+        <v>39.4</v>
+      </c>
+      <c r="N5" s="12">
+        <v>36.6</v>
+      </c>
+      <c r="O5" s="12">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="P5" s="12">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="R5" s="12">
+        <v>36.9</v>
+      </c>
+      <c r="S5" s="12">
+        <v>39</v>
+      </c>
+      <c r="T5" s="12">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="U5" s="12">
+        <v>44.8</v>
+      </c>
+      <c r="V5" s="12">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="W5" s="12">
+        <v>39.6</v>
+      </c>
+      <c r="X5" s="12">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>38.1</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>40.1</v>
+      </c>
+      <c r="AC5" s="12">
+        <v>36.6</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>40</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>38.1</v>
+      </c>
+      <c r="AH5" s="12">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="12">
+        <v>38.9</v>
+      </c>
+      <c r="AJ5" s="12">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AK5" s="12">
+        <v>39.5</v>
+      </c>
+      <c r="AL5" s="12">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AM5" s="12">
+        <v>39.5</v>
+      </c>
+      <c r="AN5" s="12">
+        <v>40.9</v>
+      </c>
+      <c r="AO5" s="12">
+        <v>40</v>
+      </c>
+      <c r="AP5" s="12">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="AQ5" s="12">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AR5" s="12">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="AS5" s="12">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AT5" s="12">
+        <v>31.1</v>
+      </c>
+      <c r="AU5" s="12">
+        <v>42.8</v>
+      </c>
+      <c r="AV5" s="12">
+        <v>38.4</v>
+      </c>
+      <c r="AW5" s="12">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AX5" s="12">
+        <v>42.7</v>
+      </c>
+      <c r="AY5" s="12">
+        <v>39.6</v>
+      </c>
+      <c r="AZ5" s="12">
+        <v>38</v>
+      </c>
+      <c r="BA5" s="12">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="AQ5" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="AT5" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="AV5" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="AZ5" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="BA5" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="AB6" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="AC6" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="AD6" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="AE6" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="AF6" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="AG6" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="AH6" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI6" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="AJ6" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="AK6" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="AL6" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="AM6" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN6" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="AO6" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="AP6" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="AQ6" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="AR6" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="AS6" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="AT6" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="AU6" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="AV6" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="AW6" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="AX6" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="AY6" s="14" t="s">
-        <v>510</v>
-      </c>
-      <c r="AZ6" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="BA6" s="14" t="s">
-        <v>512</v>
+      <c r="B6" s="12">
+        <v>93.6</v>
+      </c>
+      <c r="C6" s="12">
+        <v>109.2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>98.8</v>
+      </c>
+      <c r="E6" s="12">
+        <v>96.4</v>
+      </c>
+      <c r="F6" s="12">
+        <v>98.9</v>
+      </c>
+      <c r="G6" s="12">
+        <v>101.4</v>
+      </c>
+      <c r="H6" s="12">
+        <v>95.2</v>
+      </c>
+      <c r="I6" s="12">
+        <v>93.6</v>
+      </c>
+      <c r="J6" s="12">
+        <v>90.3</v>
+      </c>
+      <c r="K6" s="12">
+        <v>95.7</v>
+      </c>
+      <c r="L6" s="12">
+        <v>94.7</v>
+      </c>
+      <c r="M6" s="12">
+        <v>100.6</v>
+      </c>
+      <c r="N6" s="12">
+        <v>100.6</v>
+      </c>
+      <c r="O6" s="12">
+        <v>96.6</v>
+      </c>
+      <c r="P6" s="12">
+        <v>97.2</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>98.7</v>
+      </c>
+      <c r="R6" s="12">
+        <v>99.4</v>
+      </c>
+      <c r="S6" s="12">
+        <v>97</v>
+      </c>
+      <c r="T6" s="12">
+        <v>95.4</v>
+      </c>
+      <c r="U6" s="12">
+        <v>96</v>
+      </c>
+      <c r="V6" s="12">
+        <v>94</v>
+      </c>
+      <c r="W6" s="12">
+        <v>94.3</v>
+      </c>
+      <c r="X6" s="12">
+        <v>97</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>99.2</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>93.9</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>96.3</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>101.2</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>99.5</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>100.7</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>98.3</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>95.5</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>98</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>94.4</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>94.7</v>
+      </c>
+      <c r="AJ6" s="12">
+        <v>104.9</v>
+      </c>
+      <c r="AK6" s="12">
+        <v>96.1</v>
+      </c>
+      <c r="AL6" s="12">
+        <v>98.2</v>
+      </c>
+      <c r="AM6" s="12">
+        <v>98.3</v>
+      </c>
+      <c r="AN6" s="12">
+        <v>96.1</v>
+      </c>
+      <c r="AO6" s="12">
+        <v>94.7</v>
+      </c>
+      <c r="AP6" s="12">
+        <v>94.1</v>
+      </c>
+      <c r="AQ6" s="12">
+        <v>101.5</v>
+      </c>
+      <c r="AR6" s="12">
+        <v>95.3</v>
+      </c>
+      <c r="AS6" s="12">
+        <v>98.7</v>
+      </c>
+      <c r="AT6" s="12">
+        <v>101.4</v>
+      </c>
+      <c r="AU6" s="12">
+        <v>97.6</v>
+      </c>
+      <c r="AV6" s="12">
+        <v>96.8</v>
+      </c>
+      <c r="AW6" s="12">
+        <v>100.1</v>
+      </c>
+      <c r="AX6" s="12">
+        <v>97.8</v>
+      </c>
+      <c r="AY6" s="12">
+        <v>99.1</v>
+      </c>
+      <c r="AZ6" s="12">
+        <v>103.9</v>
+      </c>
+      <c r="BA6" s="12">
+        <v>90.5</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="AO7" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="AU7" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>544</v>
+        <v>420</v>
+      </c>
+      <c r="B7" s="12">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="C7" s="12">
+        <v>58.2</v>
+      </c>
+      <c r="D7" s="12">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="E7" s="12">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="F7" s="12">
+        <v>59</v>
+      </c>
+      <c r="G7" s="12">
+        <v>57.1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>60.9</v>
+      </c>
+      <c r="I7" s="12">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="J7" s="12">
+        <v>43.3</v>
+      </c>
+      <c r="K7" s="12">
+        <v>67.7</v>
+      </c>
+      <c r="L7" s="12">
+        <v>60.5</v>
+      </c>
+      <c r="M7" s="12">
+        <v>65.8</v>
+      </c>
+      <c r="N7" s="12">
+        <v>70</v>
+      </c>
+      <c r="O7" s="12">
+        <v>61.6</v>
+      </c>
+      <c r="P7" s="12">
+        <v>64.3</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>67.2</v>
+      </c>
+      <c r="R7" s="12">
+        <v>66.8</v>
+      </c>
+      <c r="S7" s="12">
+        <v>63.8</v>
+      </c>
+      <c r="T7" s="12">
+        <v>63.8</v>
+      </c>
+      <c r="U7" s="12">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="V7" s="12">
+        <v>60.3</v>
+      </c>
+      <c r="W7" s="12">
+        <v>57.1</v>
+      </c>
+      <c r="X7" s="12">
+        <v>63.5</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>65</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>67.2</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>67.8</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>62.5</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>59</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>61.9</v>
+      </c>
+      <c r="AG7" s="12">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>59.7</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>62.4</v>
+      </c>
+      <c r="AJ7" s="12">
+        <v>63.2</v>
+      </c>
+      <c r="AK7" s="12">
+        <v>64.7</v>
+      </c>
+      <c r="AL7" s="12">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="AM7" s="12">
+        <v>62.2</v>
+      </c>
+      <c r="AN7" s="12">
+        <v>63.8</v>
+      </c>
+      <c r="AO7" s="12">
+        <v>57.9</v>
+      </c>
+      <c r="AP7" s="12">
+        <v>65.2</v>
+      </c>
+      <c r="AQ7" s="12">
+        <v>70.2</v>
+      </c>
+      <c r="AR7" s="12">
+        <v>62.9</v>
+      </c>
+      <c r="AS7" s="12">
+        <v>62.1</v>
+      </c>
+      <c r="AT7" s="12">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AU7" s="12">
+        <v>61</v>
+      </c>
+      <c r="AV7" s="12">
+        <v>59.8</v>
+      </c>
+      <c r="AW7" s="12">
+        <v>59.9</v>
+      </c>
+      <c r="AX7" s="12">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AY7" s="12">
+        <v>63.6</v>
+      </c>
+      <c r="AZ7" s="12">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="BA7" s="12">
+        <v>64.7</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="AK8" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="AL8" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="AM8" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="AN8" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="AO8" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="AP8" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="AQ8" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="AR8" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="AS8" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="AT8" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="AU8" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="AV8" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="AW8" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="AX8" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="AY8" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="AZ8" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="BA8" s="4" t="s">
-        <v>591</v>
+        <v>421</v>
+      </c>
+      <c r="B8" s="12">
+        <v>27.8</v>
+      </c>
+      <c r="C8" s="12">
+        <v>18.8</v>
+      </c>
+      <c r="D8" s="12">
+        <v>29.5</v>
+      </c>
+      <c r="E8" s="12">
+        <v>28.4</v>
+      </c>
+      <c r="F8" s="12">
+        <v>22.8</v>
+      </c>
+      <c r="G8" s="12">
+        <v>22.3</v>
+      </c>
+      <c r="H8" s="12">
+        <v>27.7</v>
+      </c>
+      <c r="I8" s="12">
+        <v>31.3</v>
+      </c>
+      <c r="J8" s="12">
+        <v>17.5</v>
+      </c>
+      <c r="K8" s="12">
+        <v>34.4</v>
+      </c>
+      <c r="L8" s="12">
+        <v>22.3</v>
+      </c>
+      <c r="M8" s="12">
+        <v>30.5</v>
+      </c>
+      <c r="N8" s="12">
+        <v>26.9</v>
+      </c>
+      <c r="O8" s="12">
+        <v>25.3</v>
+      </c>
+      <c r="P8" s="12">
+        <v>25.8</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>28.5</v>
+      </c>
+      <c r="R8" s="12">
+        <v>26.4</v>
+      </c>
+      <c r="S8" s="12">
+        <v>26.8</v>
+      </c>
+      <c r="T8" s="12">
+        <v>25.3</v>
+      </c>
+      <c r="U8" s="12">
+        <v>34</v>
+      </c>
+      <c r="V8" s="12">
+        <v>24.7</v>
+      </c>
+      <c r="W8" s="12">
+        <v>26</v>
+      </c>
+      <c r="X8" s="12">
+        <v>28.1</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>26</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>26.3</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>27.8</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>31.2</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>26.3</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>25.6</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>28.8</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>26.3</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>29.2</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>26.4</v>
+      </c>
+      <c r="AI8" s="12">
+        <v>26.4</v>
+      </c>
+      <c r="AJ8" s="12">
+        <v>25</v>
+      </c>
+      <c r="AK8" s="12">
+        <v>28.1</v>
+      </c>
+      <c r="AL8" s="12">
+        <v>26.1</v>
+      </c>
+      <c r="AM8" s="12">
+        <v>28.5</v>
+      </c>
+      <c r="AN8" s="12">
+        <v>29.9</v>
+      </c>
+      <c r="AO8" s="12">
+        <v>27.2</v>
+      </c>
+      <c r="AP8" s="12">
+        <v>29.2</v>
+      </c>
+      <c r="AQ8" s="12">
+        <v>28.4</v>
+      </c>
+      <c r="AR8" s="12">
+        <v>26.6</v>
+      </c>
+      <c r="AS8" s="12">
+        <v>20.3</v>
+      </c>
+      <c r="AT8" s="12">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AU8" s="12">
+        <v>31.2</v>
+      </c>
+      <c r="AV8" s="12">
+        <v>24.7</v>
+      </c>
+      <c r="AW8" s="12">
+        <v>24.7</v>
+      </c>
+      <c r="AX8" s="12">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AY8" s="12">
+        <v>27.7</v>
+      </c>
+      <c r="AZ8" s="12">
+        <v>27.2</v>
+      </c>
+      <c r="BA8" s="12">
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="AO9" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="AP9" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="AQ9" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="AS9" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="AT9" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="AU9" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="AV9" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="AW9" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="AY9" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="AZ9" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="BA9" s="4" t="s">
-        <v>601</v>
+        <v>422</v>
+      </c>
+      <c r="B9" s="12">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C9" s="12">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D9" s="12">
+        <v>38.4</v>
+      </c>
+      <c r="E9" s="12">
+        <v>39.1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G9" s="12">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="H9" s="12">
+        <v>33.1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>35.1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>25.7</v>
+      </c>
+      <c r="K9" s="12">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="L9" s="12">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="M9" s="12">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="N9" s="12">
+        <v>43.1</v>
+      </c>
+      <c r="O9" s="12">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="P9" s="12">
+        <v>38.6</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="R9" s="12">
+        <v>40.4</v>
+      </c>
+      <c r="S9" s="12">
+        <v>37</v>
+      </c>
+      <c r="T9" s="12">
+        <v>38.5</v>
+      </c>
+      <c r="U9" s="12">
+        <v>30.9</v>
+      </c>
+      <c r="V9" s="12">
+        <v>35.6</v>
+      </c>
+      <c r="W9" s="12">
+        <v>31.1</v>
+      </c>
+      <c r="X9" s="12">
+        <v>35.4</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>38.1</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>36</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>41.4</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>36.9</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>30.2</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>35.6</v>
+      </c>
+      <c r="AG9" s="12">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AH9" s="12">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AI9" s="12">
+        <v>36</v>
+      </c>
+      <c r="AJ9" s="12">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="AK9" s="12">
+        <v>36.6</v>
+      </c>
+      <c r="AL9" s="12">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="AM9" s="12">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="AN9" s="12">
+        <v>33.9</v>
+      </c>
+      <c r="AO9" s="12">
+        <v>30.7</v>
+      </c>
+      <c r="AP9" s="12">
+        <v>36</v>
+      </c>
+      <c r="AQ9" s="12">
+        <v>41.8</v>
+      </c>
+      <c r="AR9" s="12">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AS9" s="12">
+        <v>41.8</v>
+      </c>
+      <c r="AT9" s="12">
+        <v>49.5</v>
+      </c>
+      <c r="AU9" s="12">
+        <v>29.8</v>
+      </c>
+      <c r="AV9" s="12">
+        <v>35.1</v>
+      </c>
+      <c r="AW9" s="12">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AX9" s="12">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="AY9" s="12">
+        <v>35.9</v>
+      </c>
+      <c r="AZ9" s="12">
+        <v>38.4</v>
+      </c>
+      <c r="BA9" s="12">
+        <v>30.9</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>610</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="C11" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>416</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -7416,12 +6847,12 @@
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="C12" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>416</v>
       </c>
       <c r="D12" s="4" t="s">
